--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -17,6 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -56,8 +59,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -114,10 +120,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$11</c:f>
+              <c:f>Sheet1!$D$1:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.76597222222222228</c:v>
                 </c:pt>
@@ -150,16 +156,22 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11.897916666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.88125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.9125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$11</c:f>
+              <c:f>Sheet1!$E$1:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -192,6 +204,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -206,11 +224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51167232"/>
-        <c:axId val="51168768"/>
+        <c:axId val="41367040"/>
+        <c:axId val="116416512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51167232"/>
+        <c:axId val="41367040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -220,12 +238,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51168768"/>
+        <c:crossAx val="116416512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51168768"/>
+        <c:axId val="116416512"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="3"/>
@@ -233,11 +251,11 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51167232"/>
+        <c:crossAx val="41367040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -284,10 +302,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$11</c:f>
+              <c:f>Sheet1!$F$1:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.76597222222222228</c:v>
                 </c:pt>
@@ -304,32 +322,38 @@
                   <c:v>4.2004629629629635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46263888888888882</c:v>
+                  <c:v>0.46663888888888927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4723611111111108</c:v>
+                  <c:v>1.4763611111111112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5522222222222224</c:v>
+                  <c:v>2.5562222222222228</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4362500000000002</c:v>
+                  <c:v>4.4402500000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17805555555555586</c:v>
+                  <c:v>0.18605555555555675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1579166666666669</c:v>
+                  <c:v>1.1659166666666678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1492500000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1805000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$11</c:f>
+              <c:f>Sheet1!$E$1:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -362,6 +386,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,11 +406,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76489088"/>
-        <c:axId val="76490624"/>
+        <c:axId val="116440064"/>
+        <c:axId val="116441856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76489088"/>
+        <c:axId val="116440064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,12 +420,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76490624"/>
+        <c:crossAx val="116441856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76490624"/>
+        <c:axId val="116441856"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="3"/>
@@ -404,11 +434,11 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76489088"/>
+        <c:crossAx val="116440064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.1"/>
@@ -778,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -790,7 +820,7 @@
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="4.875" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -807,7 +837,7 @@
         <f>(A1*1440+B1*60+C1)/1440</f>
         <v>0.76597222222222228</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>3.6</v>
       </c>
       <c r="F1">
@@ -829,7 +859,7 @@
         <f t="shared" ref="D2:F11" si="0">(A2*1440+B2*60+C2)/1440</f>
         <v>1.8236111111111111</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
       <c r="F2">
@@ -851,7 +881,7 @@
         <f t="shared" si="0"/>
         <v>2.9083333333333332</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>4.2</v>
       </c>
       <c r="F3">
@@ -873,7 +903,7 @@
         <f t="shared" si="0"/>
         <v>3.8576388888888888</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>3.4</v>
       </c>
       <c r="F4">
@@ -895,7 +925,7 @@
         <f t="shared" si="0"/>
         <v>4.7527777777777782</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>3.5</v>
       </c>
       <c r="F5">
@@ -917,12 +947,12 @@
         <f t="shared" si="0"/>
         <v>5.8326388888888889</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>3.7</v>
       </c>
       <c r="F6">
-        <f>D6-5.37</f>
-        <v>0.46263888888888882</v>
+        <f>D6-5.366</f>
+        <v>0.46663888888888927</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -939,12 +969,12 @@
         <f t="shared" si="0"/>
         <v>6.8423611111111109</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F9" si="2">D7-5.37</f>
-        <v>1.4723611111111108</v>
+        <f t="shared" ref="F7:F9" si="2">D7-5.366</f>
+        <v>1.4763611111111112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -961,12 +991,12 @@
         <f t="shared" si="0"/>
         <v>7.9222222222222225</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>4.3</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>2.5522222222222224</v>
+        <v>2.5562222222222228</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -983,12 +1013,12 @@
         <f t="shared" si="0"/>
         <v>9.8062500000000004</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>3.4</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>4.4362500000000002</v>
+        <v>4.4402500000000007</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1005,12 +1035,12 @@
         <f t="shared" si="0"/>
         <v>10.918055555555556</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>3.6</v>
       </c>
       <c r="F10">
-        <f>D10-5.37*2</f>
-        <v>0.17805555555555586</v>
+        <f>D10-5.366*2</f>
+        <v>0.18605555555555675</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1027,18 +1057,63 @@
         <f t="shared" si="0"/>
         <v>11.897916666666667</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>3.8</v>
       </c>
       <c r="F11">
-        <f>D11-5.37*2</f>
-        <v>1.1579166666666669</v>
+        <f t="shared" ref="F11:F13" si="3">D11-5.366*2</f>
+        <v>1.1659166666666678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f>(A12*1440+B12*60+C12)/1440</f>
+        <v>12.88125</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>2.1492500000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <f>(A13*1440+B13*60+C13)/1440</f>
+        <v>13.9125</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>3.1805000000000003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18180" windowHeight="8550"/>
+    <workbookView windowWidth="16980" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,36 +16,369 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -53,24 +386,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -94,84 +719,92 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6224628171478584E-2"/>
-          <c:y val="8.5614312138559287E-2"/>
-          <c:w val="0.87635870516185477"/>
-          <c:h val="0.86572266210456283"/>
+          <c:x val="0.0762246281714786"/>
+          <c:y val="0.0856143121385593"/>
+          <c:w val="0.876358705161855"/>
+          <c:h val="0.865722662104563"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$13</c:f>
+              <c:f>Sheet1!$E$1:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.76597222222222228</c:v>
+                  <c:v>0.765972222222222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8236111111111111</c:v>
+                  <c:v>1.82361111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9083333333333332</c:v>
+                  <c:v>2.90833333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8576388888888888</c:v>
+                  <c:v>3.85763888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7527777777777782</c:v>
+                  <c:v>4.75277777777778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8326388888888889</c:v>
+                  <c:v>5.83263888888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8423611111111109</c:v>
+                  <c:v>6.84236111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9222222222222225</c:v>
+                  <c:v>7.92222222222222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.8062500000000004</c:v>
+                  <c:v>9.80625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.918055555555556</c:v>
+                  <c:v>10.9180555555556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.897916666666667</c:v>
+                  <c:v>11.8979166666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12.88125</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13.9125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.7548611111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$13</c:f>
+              <c:f>Sheet1!$F$1:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -191,7 +824,7 @@
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.3</c:v>
@@ -210,6 +843,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -238,6 +874,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="116416512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -255,6 +907,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="41367040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -264,6 +932,15 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -286,74 +963,82 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$13</c:f>
+              <c:f>Sheet1!$G$1:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.76597222222222228</c:v>
+                  <c:v>0.765972222222222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8236111111111111</c:v>
+                  <c:v>1.82361111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9083333333333332</c:v>
+                  <c:v>2.90833333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8576388888888888</c:v>
+                  <c:v>3.85763888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2004629629629635</c:v>
+                  <c:v>4.20046296296296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46663888888888927</c:v>
+                  <c:v>0.466638888888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4763611111111112</c:v>
+                  <c:v>1.47636111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5562222222222228</c:v>
+                  <c:v>2.55622222222222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4402500000000007</c:v>
+                  <c:v>4.44025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18605555555555675</c:v>
+                  <c:v>0.186055555555557</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1659166666666678</c:v>
+                  <c:v>1.16591666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1492500000000003</c:v>
+                  <c:v>2.14925</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1805000000000003</c:v>
+                  <c:v>3.1805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.656861111111112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$13</c:f>
+              <c:f>Sheet1!$F$1:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -373,7 +1058,7 @@
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.3</c:v>
@@ -392,6 +1077,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,6 +1108,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="116441856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -438,6 +1142,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="116440064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -448,6 +1168,15 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -457,28 +1186,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4361815" y="152400"/>
+        <a:ext cx="4791075" cy="3419475"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -490,25 +1219,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9429750" y="161925"/>
+        <a:ext cx="3009900" cy="3600450"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -802,343 +1531,415 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="4.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="4.875" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2">
+        <v>43028</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>18</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>23</v>
       </c>
-      <c r="D1">
-        <f>(A1*1440+B1*60+C1)/1440</f>
-        <v>0.76597222222222228</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="E1">
+        <f>(B1*1440+C1*60+D1)/1440</f>
+        <v>0.765972222222222</v>
+      </c>
+      <c r="F1" s="1">
         <v>3.6</v>
       </c>
-      <c r="F1">
-        <f>D1</f>
-        <v>0.76597222222222228</v>
+      <c r="G1">
+        <f>E1</f>
+        <v>0.765972222222222</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>43029</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>46</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:F11" si="0">(A2*1440+B2*60+C2)/1440</f>
-        <v>1.8236111111111111</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="E2">
+        <f t="shared" ref="E2:G11" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <v>1.82361111111111</v>
+      </c>
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F4" si="1">D2</f>
-        <v>1.8236111111111111</v>
+      <c r="G2">
+        <f t="shared" ref="G2:G4" si="1">E2</f>
+        <v>1.82361111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>43030</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>48</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f t="shared" si="0"/>
-        <v>2.9083333333333332</v>
-      </c>
-      <c r="E3" s="1">
+        <v>2.90833333333333</v>
+      </c>
+      <c r="F3" s="1">
         <v>4.2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f t="shared" si="1"/>
-        <v>2.9083333333333332</v>
+        <v>2.90833333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>43031</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>35</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>3.8576388888888888</v>
-      </c>
-      <c r="E4" s="1">
+        <v>3.85763888888889</v>
+      </c>
+      <c r="F4" s="1">
         <v>3.4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
-        <v>3.8576388888888888</v>
+        <v>3.85763888888889</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>43032</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>4.7527777777777782</v>
-      </c>
-      <c r="E5" s="1">
+        <v>4.75277777777778</v>
+      </c>
+      <c r="F5" s="1">
         <v>3.5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>4.2004629629629635</v>
+        <v>4.20046296296296</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>43033</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>59</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>5.8326388888888889</v>
-      </c>
-      <c r="E6" s="1">
+        <v>5.83263888888889</v>
+      </c>
+      <c r="F6" s="1">
         <v>3.7</v>
       </c>
-      <c r="F6">
-        <f>D6-5.366</f>
-        <v>0.46663888888888927</v>
+      <c r="G6">
+        <f>E6-5.366</f>
+        <v>0.466638888888889</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>43034</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>6.8423611111111109</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F9" si="2">D7-5.366</f>
-        <v>1.4763611111111112</v>
+        <v>6.84236111111111</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G9" si="2">E7-5.366</f>
+        <v>1.47636111111111</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>7.9222222222222225</v>
-      </c>
-      <c r="E8" s="1">
+        <v>7.92222222222222</v>
+      </c>
+      <c r="F8" s="1">
         <v>4.3</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="2"/>
-        <v>2.5562222222222228</v>
+        <v>2.55622222222222</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>43037</v>
+      </c>
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>21</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>9.8062500000000004</v>
-      </c>
-      <c r="E9" s="1">
+        <v>9.80625</v>
+      </c>
+      <c r="F9" s="1">
         <v>3.4</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="2"/>
-        <v>4.4402500000000007</v>
+        <v>4.44025</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B10">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>10.918055555555556</v>
-      </c>
-      <c r="E10" s="1">
+        <v>10.9180555555556</v>
+      </c>
+      <c r="F10" s="1">
         <v>3.6</v>
       </c>
-      <c r="F10">
-        <f>D10-5.366*2</f>
-        <v>0.18605555555555675</v>
+      <c r="G10">
+        <f>E10-5.366*2</f>
+        <v>0.186055555555557</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B11">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>11.897916666666667</v>
-      </c>
-      <c r="E11" s="1">
+        <v>11.8979166666667</v>
+      </c>
+      <c r="F11" s="1">
         <v>3.8</v>
       </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F13" si="3">D11-5.366*2</f>
-        <v>1.1659166666666678</v>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="3">E11-5.366*2</f>
+        <v>1.16591666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>21</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="D12">
-        <f>(A12*1440+B12*60+C12)/1440</f>
+      <c r="E12">
+        <f t="shared" ref="E12:E14" si="4">(B12*1440+C12*60+D12)/1440</f>
         <v>12.88125</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>2.1492500000000003</v>
+        <v>2.14925</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>43041</v>
+      </c>
+      <c r="B13">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>21</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>54</v>
       </c>
-      <c r="D13">
-        <f>(A13*1440+B13*60+C13)/1440</f>
+      <c r="E13">
+        <f t="shared" si="4"/>
         <v>13.9125</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>3.7</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>3.1805000000000003</v>
+        <v>3.1805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>43044</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>16.7548611111111</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G14">
+        <f>E14-5.366*3</f>
+        <v>0.656861111111112</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -18,15 +18,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -42,55 +49,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,54 +63,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,8 +90,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,187 +193,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,6 +384,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -398,6 +446,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,212 +484,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,10 +750,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$14</c:f>
+              <c:f>Sheet1!$E$1:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -795,16 +795,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>16.7548611111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.8326388888889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.7777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$14</c:f>
+              <c:f>Sheet1!$F$1:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -845,6 +851,12 @@
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -984,10 +996,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$14</c:f>
+              <c:f>Sheet1!$G$1:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -1029,16 +1041,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.656861111111112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.73463888888889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.67977777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$14</c:f>
+              <c:f>Sheet1!$F$1:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -1079,6 +1097,12 @@
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1537,10 +1561,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1843,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E14" si="4">(B12*1440+C12*60+D12)/1440</f>
+        <f t="shared" ref="E12:E16" si="4">(B12*1440+C12*60+D12)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F12" s="1">
@@ -1900,8 +1924,58 @@
         <v>3.5</v>
       </c>
       <c r="G14">
-        <f>E14-5.366*3</f>
+        <f t="shared" ref="G14:G16" si="5">E14-5.366*3</f>
         <v>0.656861111111112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>43047</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>19.8326388888889</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>3.73463888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>43048</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>20.7777777777778</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>4.67977777777778</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -18,22 +18,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -49,9 +42,55 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,14 +102,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,87 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,12 +193,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -211,12 +241,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,145 +325,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,54 +384,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,17 +398,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,153 +425,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,10 +750,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$16</c:f>
+              <c:f>Sheet1!$E$1:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -801,16 +801,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>20.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.7736111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.7472222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$16</c:f>
+              <c:f>Sheet1!$F$1:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -858,6 +864,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +989,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.109915611814346"/>
+          <c:y val="0.0927689594356261"/>
+          <c:w val="0.840506329113924"/>
+          <c:h val="0.868253968253968"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -996,10 +1018,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$16</c:f>
+              <c:f>Sheet1!$G$1:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -1047,16 +1069,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4.67977777777778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.30961111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.28322222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$16</c:f>
+              <c:f>Sheet1!$F$1:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -1104,6 +1132,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,7 +1284,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>685165</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1261,7 +1295,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9429750" y="161925"/>
-        <a:ext cx="3009900" cy="3600450"/>
+        <a:ext cx="3695065" cy="3600450"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1561,10 +1595,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1867,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E16" si="4">(B12*1440+C12*60+D12)/1440</f>
+        <f t="shared" ref="E12:E18" si="4">(B12*1440+C12*60+D12)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F12" s="1">
@@ -1924,7 +1958,7 @@
         <v>3.5</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G16" si="5">E14-5.366*3</f>
+        <f t="shared" ref="G14:G17" si="5">E14-5.366*3</f>
         <v>0.656861111111112</v>
       </c>
     </row>
@@ -1976,6 +2010,56 @@
       <c r="G16">
         <f t="shared" si="5"/>
         <v>4.67977777777778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
+        <v>43050</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>22.7736111111111</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G17">
+        <f>E17-5.366*4</f>
+        <v>1.30961111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>43051</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>23.7472222222222</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G18">
+        <f>E18-5.366*4</f>
+        <v>2.28322222222222</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -19,10 +19,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -750,10 +750,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$18</c:f>
+              <c:f>Sheet1!$E$1:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -807,16 +807,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>23.7472222222222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.7854166666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$18</c:f>
+              <c:f>Sheet1!$F$1:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -870,6 +873,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,10 +1024,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$18</c:f>
+              <c:f>Sheet1!$G$1:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -1075,16 +1081,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.28322222222222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.32141666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$18</c:f>
+              <c:f>Sheet1!$F$1:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -1138,6 +1147,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,15 +1260,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:colOff>151765</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1265,7 +1277,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4361815" y="152400"/>
-        <a:ext cx="4791075" cy="3419475"/>
+        <a:ext cx="4791075" cy="3629025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1595,10 +1607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1901,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E18" si="4">(B12*1440+C12*60+D12)/1440</f>
+        <f t="shared" ref="E12:E19" si="4">(B12*1440+C12*60+D12)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F12" s="1">
@@ -2033,7 +2045,7 @@
         <v>3.9</v>
       </c>
       <c r="G17">
-        <f>E17-5.366*4</f>
+        <f t="shared" ref="G17:G19" si="6">E17-5.366*4</f>
         <v>1.30961111111111</v>
       </c>
     </row>
@@ -2058,8 +2070,33 @@
         <v>4.2</v>
       </c>
       <c r="G18">
-        <f>E18-5.366*4</f>
+        <f t="shared" si="6"/>
         <v>2.28322222222222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>26.7854166666667</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>5.32141666666667</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -18,11 +18,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -33,40 +33,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,19 +85,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,24 +153,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,6 +193,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -223,19 +295,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,72 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,6 +384,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -407,6 +422,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,41 +478,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -489,148 +489,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,10 +750,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$19</c:f>
+              <c:f>Sheet1!$E$1:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -810,16 +810,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>26.7854166666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.9131944444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$19</c:f>
+              <c:f>Sheet1!$F$1:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -876,6 +879,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,10 +1030,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$19</c:f>
+              <c:f>Sheet1!$G$1:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -1084,16 +1090,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.32141666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.08319444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$19</c:f>
+              <c:f>Sheet1!$F$1:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -1150,6 +1159,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,8 +1279,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1277,7 +1289,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4361815" y="152400"/>
-        <a:ext cx="4791075" cy="3629025"/>
+        <a:ext cx="4791075" cy="2773045"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1289,16 +1301,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>685165</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1306,8 +1318,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9429750" y="161925"/>
-        <a:ext cx="3695065" cy="3600450"/>
+        <a:off x="4371975" y="2971800"/>
+        <a:ext cx="4694555" cy="3257550"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1607,10 +1619,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1913,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E19" si="4">(B12*1440+C12*60+D12)/1440</f>
+        <f t="shared" ref="E12:E20" si="4">(B12*1440+C12*60+D12)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F12" s="1">
@@ -2045,7 +2057,7 @@
         <v>3.9</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G19" si="6">E17-5.366*4</f>
+        <f t="shared" ref="G17:G20" si="6">E17-5.366*4</f>
         <v>1.30961111111111</v>
       </c>
     </row>
@@ -2097,6 +2109,31 @@
       <c r="G19">
         <f t="shared" si="6"/>
         <v>5.32141666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>43057</v>
+      </c>
+      <c r="B20">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>29.9131944444444</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G20">
+        <f>E20-5.366*5</f>
+        <v>3.08319444444444</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -18,11 +18,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -44,22 +44,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,8 +69,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,38 +92,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,9 +122,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,10 +152,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,6 +167,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,6 +211,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -223,6 +283,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,31 +307,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,78 +374,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,65 +384,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +417,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -484,6 +440,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -492,10 +492,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,130 +507,130 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,10 +750,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$20</c:f>
+              <c:f>Sheet1!$E$1:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -813,16 +813,22 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>29.9131944444444</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.8409722222222</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.7909722222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$20</c:f>
+              <c:f>Sheet1!$F$1:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -882,6 +888,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,10 +1042,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$20</c:f>
+              <c:f>Sheet1!$G$1:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -1093,16 +1105,22 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3.08319444444444</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.01097222222223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.59497222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$20</c:f>
+              <c:f>Sheet1!$F$1:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -1162,6 +1180,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,10 +1643,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1925,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E20" si="4">(B12*1440+C12*60+D12)/1440</f>
+        <f t="shared" ref="E12:E22" si="4">(B12*1440+C12*60+D12)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F12" s="1">
@@ -2132,8 +2156,58 @@
         <v>3.8</v>
       </c>
       <c r="G20">
-        <f>E20-5.366*5</f>
+        <f t="shared" ref="G20:G22" si="7">E20-5.366*5</f>
         <v>3.08319444444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B21">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>31.8409722222222</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>5.01097222222223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>43062</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>59</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>34.7909722222222</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <f>E22-5.366*6</f>
+        <v>2.59497222222222</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -18,11 +18,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -30,6 +30,35 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -47,11 +76,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -62,45 +91,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,7 +131,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,38 +162,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,12 +193,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -211,6 +235,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,127 +349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,51 +384,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,11 +405,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,148 +489,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -727,7 +727,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0762246281714786"/>
-          <c:y val="0.0856143121385593"/>
+          <c:y val="0.107854362262423"/>
           <c:w val="0.876358705161855"/>
           <c:h val="0.865722662104563"/>
         </c:manualLayout>
@@ -750,10 +750,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$22</c:f>
+              <c:f>Sheet1!$E$1:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -819,16 +819,52 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>34.7909722222222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37.7479166666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.8375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.85625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.8166666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49.925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.7375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50.9215277777778</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51.7513888888889</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.8298611111111</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57.9173611111111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58.8409722222222</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59.84375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$22</c:f>
+              <c:f>Sheet1!$F$1:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -894,6 +930,42 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,10 +1114,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$22</c:f>
+              <c:f>Sheet1!$G$1:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -1111,16 +1183,52 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.59497222222222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.185916666666671</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.29425000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.88866666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.631</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4435</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.62752777777778</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.45738888888889</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.53586111111112</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.25736111111112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.18097222222222</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.817750000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$22</c:f>
+              <c:f>Sheet1!$F$1:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -1186,6 +1294,42 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,6 +1351,7 @@
         <c:axId val="116440064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1233,6 +1378,8 @@
         <c:crossAx val="116441856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="116441856"/>
@@ -1326,13 +1473,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>55880</xdr:colOff>
+      <xdr:colOff>65405</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1342,7 +1489,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4371975" y="2971800"/>
+        <a:off x="4381500" y="2971800"/>
         <a:ext cx="4694555" cy="3257550"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1643,10 +1790,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1949,7 +2096,7 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E22" si="4">(B12*1440+C12*60+D12)/1440</f>
+        <f t="shared" ref="E12:E34" si="4">(B12*1440+C12*60+D12)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F12" s="1">
@@ -2208,6 +2355,307 @@
       <c r="G22">
         <f>E22-5.366*6</f>
         <v>2.59497222222222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <v>43065</v>
+      </c>
+      <c r="B23">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>37.7479166666667</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G26" si="8">E23-5.366*7</f>
+        <v>0.185916666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>43066</v>
+      </c>
+      <c r="B24">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>38.8375</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>1.2755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B25">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>42.85625</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="8"/>
+        <v>5.29425000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B26">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>46.8166666666667</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G26">
+        <f>E26-5.366*8</f>
+        <v>3.88866666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B27">
+        <f>A27-A1</f>
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>49.925</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G32" si="9">E27-5.366*9</f>
+        <v>1.631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>43078</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>50.7375</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>2.4435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>43078</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>50.9215277777778</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="9"/>
+        <v>2.62752777777778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>43079</v>
+      </c>
+      <c r="B30">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>51.7513888888889</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>3.45738888888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B31">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>55</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>52.8298611111111</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>4.53586111111112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>43085</v>
+      </c>
+      <c r="B32">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>57.9173611111111</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G34" si="10">E32-5.366*10</f>
+        <v>4.25736111111112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <v>43086</v>
+      </c>
+      <c r="B33">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>58.8409722222222</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="10"/>
+        <v>5.18097222222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B34">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>59.84375</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G34">
+        <f>E34-5.366*11</f>
+        <v>0.817750000000004</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -18,11 +18,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -34,14 +34,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,8 +70,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,6 +86,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -91,9 +101,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,8 +124,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,22 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -160,9 +162,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,15 +178,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +193,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -205,36 +355,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,126 +374,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,11 +387,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -406,16 +412,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,6 +443,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -445,42 +462,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,10 +492,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -504,133 +504,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -726,8 +726,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0762246281714786"/>
-          <c:y val="0.107854362262423"/>
+          <c:x val="0.0742365566009021"/>
+          <c:y val="0.104419509961072"/>
           <c:w val="0.876358705161855"/>
           <c:h val="0.865722662104563"/>
         </c:manualLayout>
@@ -750,10 +750,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$34</c:f>
+              <c:f>Sheet1!$E$1:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -855,16 +855,25 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>59.84375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.8340277777778</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61.8291666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62.9583333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$34</c:f>
+              <c:f>Sheet1!$F$1:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -966,6 +975,15 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,10 +1132,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$34</c:f>
+              <c:f>Sheet1!$G$1:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -1219,16 +1237,25 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.817750000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.80802777777778</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.80316666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.93233333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$34</c:f>
+              <c:f>Sheet1!$F$1:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -1330,6 +1357,15 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,10 +1826,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2096,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E34" si="4">(B12*1440+C12*60+D12)/1440</f>
+        <f t="shared" ref="E12:E37" si="4">(B12*1440+C12*60+D12)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F12" s="1">
@@ -2654,8 +2690,83 @@
         <v>3.9</v>
       </c>
       <c r="G34">
-        <f>E34-5.366*11</f>
+        <f t="shared" ref="G34:G37" si="11">E34-5.366*11</f>
         <v>0.817750000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>60.8340277777778</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>1.80802777777778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B36">
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>61.8291666666667</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="11"/>
+        <v>2.80316666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B37">
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>62.9583333333333</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>3.93233333333334</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -18,11 +18,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -33,26 +33,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,63 +55,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,14 +80,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,10 +107,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,6 +168,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -193,187 +193,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,15 +398,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,26 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -479,6 +450,35 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -489,148 +489,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -726,388 +726,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0742365566009021"/>
-          <c:y val="0.104419509961072"/>
-          <c:w val="0.876358705161855"/>
-          <c:h val="0.865722662104563"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$1:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>0.765972222222222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.82361111111111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.90833333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.85763888888889</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.75277777777778</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.83263888888889</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.84236111111111</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.92222222222222</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.80625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.9180555555556</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.8979166666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.88125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.9125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.7548611111111</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.8326388888889</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.7777777777778</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.7736111111111</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.7472222222222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26.7854166666667</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.9131944444444</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31.8409722222222</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.7909722222222</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37.7479166666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.8375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42.85625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>46.8166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>49.925</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>50.7375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50.9215277777778</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>51.7513888888889</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>52.8298611111111</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>57.9173611111111</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>58.8409722222222</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>59.84375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>60.8340277777778</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>61.8291666666667</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>62.9583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$1:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="41367040"/>
-        <c:axId val="116416512"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="41367040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="116416512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="116416512"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:min val="3"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41367040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="0.109915611814346"/>
           <c:y val="0.0927689594356261"/>
           <c:w val="0.840506329113924"/>
@@ -1132,10 +750,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$37</c:f>
+              <c:f>Sheet1!$G$1:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0.765972222222222</c:v>
                 </c:pt>
@@ -1246,16 +864,37 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.93233333333334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.86427777777778</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.36147222222223</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.48577777777778</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4906388888889</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.01769444444444</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.971777777777788</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.97108333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$37</c:f>
+              <c:f>Sheet1!$F$1:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
                 </c:pt>
@@ -1366,6 +1005,27 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,45 +1139,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>151765</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>10795</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="4361815" y="152400"/>
-        <a:ext cx="4791075" cy="2773045"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>65405</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>684530</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1525,12 +1155,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4381500" y="2971800"/>
-        <a:ext cx="4694555" cy="3257550"/>
+        <a:off x="4533900" y="1371600"/>
+        <a:ext cx="5161280" cy="4561840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1826,10 +1456,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2132,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E37" si="4">(B12*1440+C12*60+D12)/1440</f>
+        <f t="shared" ref="E12:E44" si="4">(B12*1440+C12*60+D12)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F12" s="1">
@@ -2690,7 +2320,7 @@
         <v>3.9</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G37" si="11">E34-5.366*11</f>
+        <f t="shared" ref="G34:G39" si="11">E34-5.366*11</f>
         <v>0.817750000000004</v>
       </c>
     </row>
@@ -2767,6 +2397,183 @@
       <c r="G37">
         <f t="shared" si="11"/>
         <v>3.93233333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B38">
+        <v>63</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>63.8902777777778</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>4.86427777777778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
+        <v>43093</v>
+      </c>
+      <c r="B39">
+        <f>A39-A1</f>
+        <v>65</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>65.7534722222222</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G42" si="12">E39-5.366*12</f>
+        <v>1.36147222222223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B40">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>66.8777777777778</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="12"/>
+        <v>2.48577777777778</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B41">
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>67.8826388888889</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="12"/>
+        <v>3.4906388888889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B42">
+        <f>A42-A1</f>
+        <v>73</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>37</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>73.7756944444444</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G42">
+        <f>E42-5.366*13</f>
+        <v>4.01769444444444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2">
+        <v>43114</v>
+      </c>
+      <c r="B43">
+        <v>86</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>86.8277777777778</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G43">
+        <f>E43-5.366*16</f>
+        <v>0.971777777777788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B44">
+        <v>87</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>51</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>87.8270833333333</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="G44">
+        <f>E44-5.366*16</f>
+        <v>1.97108333333334</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -15,13 +15,21 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+  <si>
+    <t>2018年</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -33,25 +41,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -64,10 +108,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,29 +123,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,17 +154,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,31 +170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -178,7 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +201,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,133 +243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,6 +261,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,7 +351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +363,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,6 +392,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -403,21 +441,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -428,21 +451,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +475,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -475,162 +492,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -726,8 +734,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.109915611814346"/>
-          <c:y val="0.0927689594356261"/>
+          <c:x val="0.0457625454188353"/>
+          <c:y val="0.0781531465180315"/>
           <c:w val="0.840506329113924"/>
           <c:h val="0.868253968253968"/>
         </c:manualLayout>
@@ -738,6 +746,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"2017"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
@@ -1026,6 +1045,56 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"2018"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.61736111111117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,19 +1203,1232 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Cep delta</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"2017"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.765972222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.82361111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.90833333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.85763888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.20046296296296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.466638888888889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.47636111111111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.55622222222222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.44025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.186055555555557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.16591666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.14925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.656861111111112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.73463888888889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.67977777777778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.30961111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.28322222222222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.32141666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.08319444444444</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.01097222222223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.59497222222222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.185916666666671</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.29425000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.88866666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.631</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4435</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.62752777777778</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.45738888888889</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.53586111111112</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.25736111111112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.18097222222222</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.817750000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.80802777777778</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.80316666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.93233333333334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.86427777777778</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.36147222222223</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.48577777777778</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4906388888889</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.01769444444444</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.971777777777788</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.97108333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"2018"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.61736111111117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="212597050"/>
+        <c:axId val="543200448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="212597050"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543200448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543200448"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212597050"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.05"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>684530</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>560705</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -1155,8 +2437,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4533900" y="1371600"/>
-        <a:ext cx="5161280" cy="4561840"/>
+        <a:off x="4476750" y="171450"/>
+        <a:ext cx="6466205" cy="4561840"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>310515</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="683260" y="168910"/>
+        <a:ext cx="7856855" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1456,13 +2773,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.125"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
@@ -2500,7 +3817,7 @@
         <v>3.4906388888889</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>43101</v>
       </c>
@@ -2525,6 +3842,9 @@
         <f>E42-5.366*13</f>
         <v>4.01769444444444</v>
       </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
@@ -2547,7 +3867,7 @@
         <v>3.8</v>
       </c>
       <c r="G43">
-        <f>E43-5.366*16</f>
+        <f t="shared" ref="G43:G45" si="13">E43-5.366*16</f>
         <v>0.971777777777788</v>
       </c>
     </row>
@@ -2565,15 +3885,41 @@
         <v>51</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f>(B44*1440+C44*60+D44)/1440</f>
         <v>87.8270833333333</v>
       </c>
       <c r="F44" s="1">
         <v>4.1</v>
       </c>
       <c r="G44">
-        <f>E44-5.366*16</f>
+        <f t="shared" si="13"/>
         <v>1.97108333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2">
+        <v>43300</v>
+      </c>
+      <c r="B45">
+        <f>A45-A44+B44</f>
+        <v>272</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f>(B45*1440+C45*60+D45)/1440</f>
+        <v>272.917361111111</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G45">
+        <f>E45-5.366*50</f>
+        <v>4.61736111111117</v>
       </c>
     </row>
   </sheetData>
@@ -2590,13 +3936,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16980" windowHeight="10935"/>
+    <workbookView windowWidth="16980" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,52 +16,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相对日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相对日数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>亮度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期相位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,21 +65,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -92,9 +418,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -109,10 +677,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -159,6 +774,7 @@
               <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>Cep delta</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -176,17 +792,26 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2017</c:v>
+            <c:strRef>
+              <c:f>2017</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -198,14 +823,19 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$G$2:$G$45</c:f>
@@ -213,31 +843,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>0.76597222222222205</c:v>
+                  <c:v>0.765972222222222</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.82361111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9083333333333301</c:v>
+                  <c:v>2.90833333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8576388888888902</c:v>
+                  <c:v>3.85763888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.20046296296296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46663888888888899</c:v>
+                  <c:v>0.466638888888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4763611111111099</c:v>
+                  <c:v>1.47636111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5562222222222202</c:v>
+                  <c:v>2.55622222222222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4402499999999998</c:v>
+                  <c:v>4.44025</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.186055555555557</c:v>
@@ -246,34 +876,34 @@
                   <c:v>1.16591666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1492499999999999</c:v>
+                  <c:v>2.14925</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1804999999999999</c:v>
+                  <c:v>3.1805</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65686111111111201</c:v>
+                  <c:v>0.656861111111112</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.73463888888889</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6797777777777796</c:v>
+                  <c:v>4.67977777777778</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3096111111111099</c:v>
+                  <c:v>1.30961111111111</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.28322222222222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3214166666666696</c:v>
+                  <c:v>5.32141666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0831944444444401</c:v>
+                  <c:v>3.08319444444444</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0109722222222297</c:v>
+                  <c:v>5.01097222222223</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.59497222222222</c:v>
@@ -282,10 +912,10 @@
                   <c:v>0.185916666666671</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2755000000000001</c:v>
+                  <c:v>1.2755</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2942500000000097</c:v>
+                  <c:v>5.29425000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3.88866666666667</c:v>
@@ -294,10 +924,10 @@
                   <c:v>1.631</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4434999999999998</c:v>
+                  <c:v>2.4435</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.6275277777777801</c:v>
+                  <c:v>2.62752777777778</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.45738888888889</c:v>
@@ -306,40 +936,40 @@
                   <c:v>4.53586111111112</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.2573611111111198</c:v>
+                  <c:v>4.25736111111112</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.1809722222222199</c:v>
+                  <c:v>5.18097222222222</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.81775000000000397</c:v>
+                  <c:v>0.817750000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.80802777777778</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.8031666666666699</c:v>
+                  <c:v>2.80316666666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.9323333333333399</c:v>
+                  <c:v>3.93233333333334</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.8642777777777804</c:v>
+                  <c:v>4.86427777777778</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1.36147222222223</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.4857777777777801</c:v>
+                  <c:v>2.48577777777778</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.4906388888888999</c:v>
+                  <c:v>3.4906388888889</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4.01769444444444</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.97177777777778795</c:v>
+                  <c:v>0.971777777777788</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1.97108333333334</c:v>
@@ -372,7 +1002,7 @@
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.3</c:v>
@@ -483,7 +1113,7 @@
                   <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,11 +1124,20 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2018</c:v>
+            <c:strRef>
+              <c:f>2018</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -510,34 +1149,45 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46</c:f>
+              <c:f>Sheet1!$G$46:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.6173611111111699</c:v>
+                  <c:v>4.61736111111117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.23538888888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46</c:f>
+              <c:f>Sheet1!$F$46:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -571,6 +1221,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -589,6 +1240,7 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -610,7 +1262,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="58113408"/>
@@ -635,6 +1286,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -653,6 +1305,7 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -674,7 +1327,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="58111104"/>
@@ -719,7 +1371,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -738,6 +1389,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -749,643 +1401,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Cep delta</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>2017</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>0.76597222222222205</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.82361111111111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9083333333333301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8576388888888902</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.20046296296296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.46663888888888899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4763611111111099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5562222222222202</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4402499999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.186055555555557</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.16591666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1492499999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.1804999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.65686111111111201</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.73463888888889</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.6797777777777796</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3096111111111099</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.28322222222222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.3214166666666696</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.0831944444444401</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.0109722222222297</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.59497222222222</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.185916666666671</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2755000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.2942500000000097</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.88866666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.631</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4434999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.6275277777777801</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.45738888888889</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.53586111111112</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.2573611111111198</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.1809722222222199</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.81775000000000397</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.80802777777778</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.8031666666666699</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.9323333333333399</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.8642777777777804</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.36147222222223</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.4857777777777801</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.4906388888888999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.01769444444444</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.97177777777778795</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.97108333333334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$45</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2018</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.6173611111111699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$46</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="92394240"/>
-        <c:axId val="92396160"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="92394240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92396160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.5"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="92396160"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:min val="3"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92394240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
-        <c:minorUnit val="0.05"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1397,7 +1412,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1407,55 +1422,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>666115</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>683260</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>168910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>310515</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5362575" y="142875"/>
+        <a:ext cx="6790690" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1749,19 +1727,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125"/>
     <col min="2" max="2" width="8.75" customWidth="1"/>
@@ -1773,7 +1751,7 @@
     <col min="9" max="9" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>43028</v>
       </c>
@@ -1817,20 +1795,20 @@
       </c>
       <c r="E2">
         <f>(B2*1440+C2*60+D2)/1440</f>
-        <v>0.76597222222222205</v>
+        <v>0.765972222222222</v>
       </c>
       <c r="F2" s="1">
         <v>3.6</v>
       </c>
       <c r="G2">
         <f>E2</f>
-        <v>0.76597222222222205</v>
+        <v>0.765972222222222</v>
       </c>
       <c r="I2">
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>43029</v>
       </c>
@@ -1855,7 +1833,7 @@
         <v>1.82361111111111</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>43030</v>
       </c>
@@ -1870,17 +1848,17 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.9083333333333301</v>
+        <v>2.90833333333333</v>
       </c>
       <c r="F4" s="1">
         <v>4.2</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>2.9083333333333301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2.90833333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>43031</v>
       </c>
@@ -1895,20 +1873,20 @@
       </c>
       <c r="E5">
         <f>(B5*1440+C5*60+D5)/1440</f>
-        <v>3.8576388888888888</v>
+        <v>3.85763888888889</v>
       </c>
       <c r="F5" s="1">
         <v>3.4</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>3.8576388888888902</v>
+        <v>3.85763888888889</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>43032</v>
       </c>
@@ -1933,7 +1911,7 @@
         <v>4.20046296296296</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>43033</v>
       </c>
@@ -1948,17 +1926,17 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5.8326388888888898</v>
+        <v>5.83263888888889</v>
       </c>
       <c r="F7" s="1">
         <v>3.7</v>
       </c>
       <c r="G7">
         <f>E7-5.366</f>
-        <v>0.46663888888888899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0.466638888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>43034</v>
       </c>
@@ -1976,14 +1954,14 @@
         <v>6.84236111111111</v>
       </c>
       <c r="F8" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:G10" si="2">E8-5.366</f>
-        <v>1.4763611111111099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1.47636111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>43035</v>
       </c>
@@ -1998,17 +1976,17 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>7.9222222222222198</v>
+        <v>7.92222222222222</v>
       </c>
       <c r="F9" s="1">
         <v>4.3</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>2.5562222222222202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2.55622222222222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>43037</v>
       </c>
@@ -2023,20 +2001,20 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>9.8062500000000004</v>
+        <v>9.80625</v>
       </c>
       <c r="F10" s="1">
         <v>3.4</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>4.4402499999999998</v>
+        <v>4.44025</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>43038</v>
       </c>
@@ -2061,7 +2039,7 @@
         <v>0.186055555555557</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>43039</v>
       </c>
@@ -2076,7 +2054,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>11.897916666666699</v>
+        <v>11.8979166666667</v>
       </c>
       <c r="F12" s="1">
         <v>3.8</v>
@@ -2086,7 +2064,7 @@
         <v>1.16591666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>43040</v>
       </c>
@@ -2100,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E44" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E47" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -2108,10 +2086,10 @@
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>2.1492499999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2.14925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>43041</v>
       </c>
@@ -2133,10 +2111,10 @@
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>3.1804999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3.1805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>43044</v>
       </c>
@@ -2151,20 +2129,20 @@
       </c>
       <c r="E15">
         <f t="shared" si="4"/>
-        <v>16.754861111111101</v>
+        <v>16.7548611111111</v>
       </c>
       <c r="F15" s="1">
         <v>3.5</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G17" si="5">E15-5.366*3</f>
-        <v>0.65686111111111201</v>
+        <v>0.656861111111112</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>43047</v>
       </c>
@@ -2179,7 +2157,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="4"/>
-        <v>19.832638888888901</v>
+        <v>19.8326388888889</v>
       </c>
       <c r="F16" s="1">
         <v>3.7</v>
@@ -2189,7 +2167,7 @@
         <v>3.73463888888889</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>43048</v>
       </c>
@@ -2211,10 +2189,10 @@
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>4.6797777777777796</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>4.67977777777778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>43050</v>
       </c>
@@ -2229,17 +2207,17 @@
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
-        <v>22.773611111111101</v>
+        <v>22.7736111111111</v>
       </c>
       <c r="F18" s="1">
         <v>3.9</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:G20" si="6">E18-5.366*4</f>
-        <v>1.3096111111111099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1.30961111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>43051</v>
       </c>
@@ -2254,7 +2232,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="4"/>
-        <v>23.747222222222199</v>
+        <v>23.7472222222222</v>
       </c>
       <c r="F19" s="1">
         <v>4.2</v>
@@ -2264,7 +2242,7 @@
         <v>2.28322222222222</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>43054</v>
       </c>
@@ -2279,20 +2257,20 @@
       </c>
       <c r="E20">
         <f t="shared" si="4"/>
-        <v>26.785416666666698</v>
+        <v>26.7854166666667</v>
       </c>
       <c r="F20" s="1">
         <v>3.5</v>
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
-        <v>5.3214166666666696</v>
+        <v>5.32141666666667</v>
       </c>
       <c r="H20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>43057</v>
       </c>
@@ -2314,10 +2292,10 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="7">E21-5.366*5</f>
-        <v>3.0831944444444401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>3.08319444444444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>43059</v>
       </c>
@@ -2332,20 +2310,20 @@
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
-        <v>31.840972222222199</v>
+        <v>31.8409722222222</v>
       </c>
       <c r="F22" s="1">
         <v>3.4</v>
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>5.0109722222222297</v>
+        <v>5.01097222222223</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>43062</v>
       </c>
@@ -2360,7 +2338,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
-        <v>34.790972222222202</v>
+        <v>34.7909722222222</v>
       </c>
       <c r="F23" s="1">
         <v>4</v>
@@ -2370,7 +2348,7 @@
         <v>2.59497222222222</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>43065</v>
       </c>
@@ -2385,7 +2363,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
-        <v>37.747916666666697</v>
+        <v>37.7479166666667</v>
       </c>
       <c r="F24" s="1">
         <v>3.5</v>
@@ -2398,7 +2376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>43066</v>
       </c>
@@ -2413,17 +2391,17 @@
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>38.837499999999999</v>
+        <v>38.8375</v>
       </c>
       <c r="F25" s="1">
         <v>3.7</v>
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>1.2755000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1.2755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>43070</v>
       </c>
@@ -2438,20 +2416,20 @@
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>42.856250000000003</v>
+        <v>42.85625</v>
       </c>
       <c r="F26" s="1">
         <v>3.4</v>
       </c>
       <c r="G26">
         <f t="shared" si="8"/>
-        <v>5.2942500000000097</v>
+        <v>5.29425000000001</v>
       </c>
       <c r="H26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>43074</v>
       </c>
@@ -2466,7 +2444,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>46.816666666666698</v>
+        <v>46.8166666666667</v>
       </c>
       <c r="F27" s="1">
         <v>3.4</v>
@@ -2479,7 +2457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>43077</v>
       </c>
@@ -2495,7 +2473,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>49.924999999999997</v>
+        <v>49.925</v>
       </c>
       <c r="F28" s="1">
         <v>4</v>
@@ -2505,7 +2483,7 @@
         <v>1.631</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>43078</v>
       </c>
@@ -2520,17 +2498,17 @@
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>50.737499999999997</v>
+        <v>50.7375</v>
       </c>
       <c r="F29" s="1">
         <v>4.2</v>
       </c>
       <c r="G29">
         <f t="shared" si="9"/>
-        <v>2.4434999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2.4435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>43078</v>
       </c>
@@ -2545,17 +2523,17 @@
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>50.921527777777797</v>
+        <v>50.9215277777778</v>
       </c>
       <c r="F30" s="1">
         <v>4.3</v>
       </c>
       <c r="G30">
         <f t="shared" si="9"/>
-        <v>2.6275277777777801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2.62752777777778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>43079</v>
       </c>
@@ -2570,7 +2548,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>51.751388888888897</v>
+        <v>51.7513888888889</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
@@ -2580,7 +2558,7 @@
         <v>3.45738888888889</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>43080</v>
       </c>
@@ -2608,7 +2586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>43085</v>
       </c>
@@ -2623,20 +2601,20 @@
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>57.917361111111099</v>
+        <v>57.9173611111111</v>
       </c>
       <c r="F33" s="1">
         <v>3.5</v>
       </c>
       <c r="G33">
         <f t="shared" ref="G33:G34" si="10">E33-5.366*10</f>
-        <v>4.2573611111111198</v>
+        <v>4.25736111111112</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>43086</v>
       </c>
@@ -2651,17 +2629,17 @@
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>58.840972222222199</v>
+        <v>58.8409722222222</v>
       </c>
       <c r="F34" s="1">
         <v>3.7</v>
       </c>
       <c r="G34">
         <f t="shared" si="10"/>
-        <v>5.1809722222222199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>5.18097222222222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>43087</v>
       </c>
@@ -2683,10 +2661,10 @@
       </c>
       <c r="G35">
         <f t="shared" ref="G35:G39" si="11">E35-5.366*11</f>
-        <v>0.81775000000000397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0.817750000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>43088</v>
       </c>
@@ -2701,7 +2679,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>60.834027777777798</v>
+        <v>60.8340277777778</v>
       </c>
       <c r="F36" s="1">
         <v>4</v>
@@ -2711,7 +2689,7 @@
         <v>1.80802777777778</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>43089</v>
       </c>
@@ -2726,17 +2704,17 @@
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
-        <v>61.829166666666701</v>
+        <v>61.8291666666667</v>
       </c>
       <c r="F37" s="1">
         <v>4.3</v>
       </c>
       <c r="G37">
         <f t="shared" si="11"/>
-        <v>2.8031666666666699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2.80316666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>43090</v>
       </c>
@@ -2758,13 +2736,13 @@
       </c>
       <c r="G38">
         <f t="shared" si="11"/>
-        <v>3.9323333333333399</v>
+        <v>3.93233333333334</v>
       </c>
       <c r="H38">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>43091</v>
       </c>
@@ -2779,17 +2757,17 @@
       </c>
       <c r="E39">
         <f t="shared" si="4"/>
-        <v>63.890277777777797</v>
+        <v>63.8902777777778</v>
       </c>
       <c r="F39" s="1">
         <v>3.5</v>
       </c>
       <c r="G39">
         <f t="shared" si="11"/>
-        <v>4.8642777777777804</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4.86427777777778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>43093</v>
       </c>
@@ -2815,7 +2793,7 @@
         <v>1.36147222222223</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>43094</v>
       </c>
@@ -2830,17 +2808,17 @@
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
-        <v>66.877777777777794</v>
+        <v>66.8777777777778</v>
       </c>
       <c r="F41" s="1">
         <v>4.2</v>
       </c>
       <c r="G41">
         <f t="shared" si="12"/>
-        <v>2.4857777777777801</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2.48577777777778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>43095</v>
       </c>
@@ -2855,17 +2833,17 @@
       </c>
       <c r="E42">
         <f t="shared" si="4"/>
-        <v>67.882638888888906</v>
+        <v>67.8826388888889</v>
       </c>
       <c r="F42" s="1">
         <v>4</v>
       </c>
       <c r="G42">
         <f t="shared" si="12"/>
-        <v>3.4906388888888999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3.4906388888889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>43101</v>
       </c>
@@ -2881,7 +2859,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="4"/>
-        <v>73.775694444444397</v>
+        <v>73.7756944444444</v>
       </c>
       <c r="F43" s="1">
         <v>3.5</v>
@@ -2897,7 +2875,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>43114</v>
       </c>
@@ -2912,20 +2890,20 @@
       </c>
       <c r="E44">
         <f t="shared" si="4"/>
-        <v>86.827777777777797</v>
+        <v>86.8277777777778</v>
       </c>
       <c r="F44" s="1">
         <v>3.8</v>
       </c>
       <c r="G44">
         <f t="shared" ref="G44:G45" si="13">E44-5.366*16</f>
-        <v>0.97177777777778795</v>
+        <v>0.971777777777788</v>
       </c>
       <c r="H44">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -2939,18 +2917,18 @@
         <v>51</v>
       </c>
       <c r="E45">
-        <f>(B45*1440+C45*60+D45)/1440</f>
-        <v>87.827083333333306</v>
+        <f t="shared" si="4"/>
+        <v>87.8270833333333</v>
       </c>
       <c r="F45" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G45">
         <f t="shared" si="13"/>
         <v>1.97108333333334</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>43300</v>
       </c>
@@ -2965,53 +2943,85 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <f>(B46*1440+C46*60+D46)/1440</f>
-        <v>272.91736111111101</v>
+        <f t="shared" si="4"/>
+        <v>272.917361111111</v>
       </c>
       <c r="F46" s="1">
         <v>3.4</v>
       </c>
       <c r="G46">
         <f>E46-5.366*50</f>
-        <v>4.6173611111111699</v>
+        <v>4.61736111111117</v>
       </c>
       <c r="H46">
         <v>50</v>
       </c>
     </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B47">
+        <f>A47-A46+B46</f>
+        <v>277</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>38</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>277.901388888889</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="G47">
+        <f>E47-5.366*51</f>
+        <v>4.23538888888891</v>
+      </c>
+      <c r="H47">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -50,9 +50,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -65,55 +65,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,30 +93,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -162,9 +117,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,8 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,16 +193,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +225,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,175 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,35 +421,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +439,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,17 +485,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,148 +521,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,30 +1164,36 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$47</c:f>
+              <c:f>Sheet1!$G$46:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.23538888888891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.86105555555559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$47</c:f>
+              <c:f>Sheet1!$F$46:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,8 +1421,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
@@ -1432,8 +1438,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5362575" y="142875"/>
-        <a:ext cx="6790690" cy="5742305"/>
+        <a:off x="4867275" y="142875"/>
+        <a:ext cx="7019290" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1733,10 +1739,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1748,6 +1754,7 @@
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="5.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.625"/>
+    <col min="8" max="8" width="5.5" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2078,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E47" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E48" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -2933,7 +2940,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f>A46-A45+B45</f>
+        <f t="shared" ref="B46:B48" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -2962,7 +2969,7 @@
         <v>43305</v>
       </c>
       <c r="B47">
-        <f>A47-A46+B46</f>
+        <f t="shared" si="14"/>
         <v>277</v>
       </c>
       <c r="C47">
@@ -2984,6 +2991,35 @@
       </c>
       <c r="H47">
         <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="14"/>
+        <v>283</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>26</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>283.893055555556</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G48">
+        <f>E48-5.366*52</f>
+        <v>4.86105555555559</v>
+      </c>
+      <c r="H48">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>日期</t>
   </si>
@@ -44,6 +44,9 @@
   <si>
     <t>年份</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
@@ -51,9 +54,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -79,6 +82,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -94,26 +112,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +134,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -139,23 +149,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,19 +188,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,21 +218,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -267,7 +270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,12 +397,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +431,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -439,6 +451,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,30 +511,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -521,136 +524,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,10 +662,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,10 +1167,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$48</c:f>
+              <c:f>Sheet1!$G$46:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1176,16 +1179,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.86105555555559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.492972222222249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$48</c:f>
+              <c:f>Sheet1!$F$46:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1194,6 +1200,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,8 +1447,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4867275" y="142875"/>
-        <a:ext cx="7019290" cy="5742305"/>
+        <a:off x="4800600" y="142875"/>
+        <a:ext cx="6838315" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1739,10 +1748,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1754,8 +1763,8 @@
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="5.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.625"/>
-    <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2085,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E48" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E49" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -2850,7 +2859,7 @@
         <v>3.4906388888889</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>43101</v>
       </c>
@@ -2878,9 +2887,6 @@
       <c r="H43">
         <v>13</v>
       </c>
-      <c r="I43">
-        <v>2018</v>
-      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
@@ -2940,7 +2946,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B48" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B49" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3020,6 +3026,38 @@
       </c>
       <c r="H48">
         <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="14"/>
+        <v>284</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>284.890972222222</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G49">
+        <f>E49-5.366*53</f>
+        <v>0.492972222222249</v>
+      </c>
+      <c r="H49">
+        <v>53</v>
+      </c>
+      <c r="I49" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>日期</t>
   </si>
@@ -47,6 +47,9 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>yw</t>
+  </si>
 </sst>
 </file>
 
@@ -69,14 +72,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,8 +108,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +124,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -126,9 +139,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,8 +162,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,22 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -197,23 +202,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +231,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,7 +339,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,151 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,11 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,16 +450,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +481,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -480,42 +500,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,10 +530,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,31 +542,31 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,100 +575,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,10 +1170,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$49</c:f>
+              <c:f>Sheet1!$G$46:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1182,16 +1185,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.492972222222249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.46380555555561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$49</c:f>
+              <c:f>Sheet1!$F$46:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1203,6 +1209,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,10 +1757,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2094,7 +2103,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E49" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E50" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -2946,7 +2955,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B49" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B50" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3058,6 +3067,35 @@
       </c>
       <c r="I49" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="14"/>
+        <v>285</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>41</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>285.861805555556</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G50">
+        <f>E50-5.366*53</f>
+        <v>1.46380555555561</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +50,9 @@
   <si>
     <t>yw</t>
   </si>
+  <si>
+    <t>o</t>
+  </si>
 </sst>
 </file>
 
@@ -73,14 +76,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,22 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +143,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -181,6 +153,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +181,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +205,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +234,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -243,126 +396,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,36 +415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,41 +428,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,17 +448,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +476,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -522,153 +514,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,10 +1173,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$50</c:f>
+              <c:f>Sheet1!$G$46:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1188,16 +1191,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.46380555555561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.48047222222226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$50</c:f>
+              <c:f>Sheet1!$F$46:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1212,6 +1218,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,10 +1766,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2103,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E50" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E51" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -2955,7 +2964,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B50" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B51" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3059,7 +3068,7 @@
         <v>3.8</v>
       </c>
       <c r="G49">
-        <f>E49-5.366*53</f>
+        <f t="shared" ref="G49:G51" si="15">E49-5.366*53</f>
         <v>0.492972222222249</v>
       </c>
       <c r="H49">
@@ -3091,11 +3100,40 @@
         <v>3.9</v>
       </c>
       <c r="G50">
-        <f>E50-5.366*53</f>
+        <f t="shared" si="15"/>
         <v>1.46380555555561</v>
       </c>
       <c r="I50" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="2">
+        <v>43315</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="14"/>
+        <v>287</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>287.878472222222</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="15"/>
+        <v>3.48047222222226</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -59,10 +59,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -74,6 +74,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -96,10 +186,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,93 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,14 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,7 +234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,13 +246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,19 +258,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,49 +288,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +318,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,37 +384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +425,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,15 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -472,6 +478,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,21 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -514,164 +525,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -799,7 +799,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0457424087659021"/>
+          <c:y val="0.115404180028752"/>
+          <c:w val="0.933828582041044"/>
+          <c:h val="0.811611190976446"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -1173,10 +1183,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$51</c:f>
+              <c:f>Sheet1!$G$46:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1194,16 +1204,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.48047222222226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.46102777777782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.44783333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$51</c:f>
+              <c:f>Sheet1!$F$46:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1221,6 +1237,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,10 +1788,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2112,7 +2134,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E51" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E53" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -2964,7 +2986,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B51" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B53" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3068,7 +3090,7 @@
         <v>3.8</v>
       </c>
       <c r="G49">
-        <f t="shared" ref="G49:G51" si="15">E49-5.366*53</f>
+        <f t="shared" ref="G49:G53" si="15">E49-5.366*53</f>
         <v>0.492972222222249</v>
       </c>
       <c r="H49">
@@ -3134,6 +3156,64 @@
       </c>
       <c r="I51" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2">
+        <v>43316</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="14"/>
+        <v>288</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>37</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>288.859027777778</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="15"/>
+        <v>4.46102777777782</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2">
+        <v>43317</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="14"/>
+        <v>289</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>289.845833333333</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="15"/>
+        <v>5.44783333333339</v>
+      </c>
+      <c r="I53" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -59,10 +59,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -74,8 +74,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -88,30 +103,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -119,19 +110,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,45 +139,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,8 +169,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +208,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -231,6 +231,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -259,66 +265,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,43 +300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +318,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +364,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -425,30 +425,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,19 +461,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,11 +500,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,148 +530,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,10 +1183,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$53</c:f>
+              <c:f>Sheet1!$G$46:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1209,17 +1209,20 @@
                   <c:v>4.46102777777782</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.44783333333339</c:v>
+                  <c:v>0.0818333333330088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2887777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$53</c:f>
+              <c:f>Sheet1!$F$46:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1243,6 +1246,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1788,10 +1794,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2134,7 +2140,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E53" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E54" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -2986,7 +2992,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B53" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B54" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3090,7 +3096,7 @@
         <v>3.8</v>
       </c>
       <c r="G49">
-        <f t="shared" ref="G49:G53" si="15">E49-5.366*53</f>
+        <f t="shared" ref="G49:G54" si="15">E49-5.366*53</f>
         <v>0.492972222222249</v>
       </c>
       <c r="H49">
@@ -3209,11 +3215,40 @@
         <v>3.5</v>
       </c>
       <c r="G53">
-        <f t="shared" si="15"/>
-        <v>5.44783333333339</v>
+        <f>E53-5.366*54</f>
+        <v>0.0818333333330088</v>
+      </c>
+      <c r="H53">
+        <v>54</v>
       </c>
       <c r="I53" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2">
+        <v>43319</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="14"/>
+        <v>291</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>291.052777777778</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G54">
+        <f>E54-5.366*54</f>
+        <v>1.2887777777778</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -59,16 +59,39 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -88,16 +111,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,7 +143,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,14 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,81 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,13 +234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +246,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,13 +282,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,25 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,25 +396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,61 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +425,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,6 +478,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,212 +525,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,10 +1183,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$54</c:f>
+              <c:f>Sheet1!$G$46:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1213,16 +1213,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.2887777777778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.10683333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$54</c:f>
+              <c:f>Sheet1!$F$46:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1249,6 +1252,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,10 +1800,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2140,7 +2146,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E54" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E55" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -2992,7 +2998,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B54" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B55" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3215,7 +3221,7 @@
         <v>3.5</v>
       </c>
       <c r="G53">
-        <f>E53-5.366*54</f>
+        <f t="shared" ref="G53:G55" si="16">E53-5.366*54</f>
         <v>0.0818333333330088</v>
       </c>
       <c r="H53">
@@ -3247,8 +3253,37 @@
         <v>3.9</v>
       </c>
       <c r="G54">
-        <f>E54-5.366*54</f>
+        <f t="shared" si="16"/>
         <v>1.2887777777778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2">
+        <v>43319</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="14"/>
+        <v>291</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>291.870833333333</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="16"/>
+        <v>2.10683333333333</v>
+      </c>
+      <c r="I55" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>日期</t>
   </si>
@@ -53,17 +53,20 @@
   <si>
     <t>o</t>
   </si>
+  <si>
+    <t>w</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -71,21 +74,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,11 +99,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,9 +115,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,46 +147,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +173,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -219,7 +198,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,31 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,54 +256,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +327,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,6 +379,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -428,41 +431,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,17 +451,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,153 +487,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,10 +1186,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$55</c:f>
+              <c:f>Sheet1!$G$46:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1216,16 +1219,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.10683333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.08669444444445</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.08877777777775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$55</c:f>
+              <c:f>Sheet1!$F$46:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1255,6 +1264,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,16 +1497,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>666115</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:rowOff>65405</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1499,8 +1514,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4800600" y="142875"/>
-        <a:ext cx="6838315" cy="5742305"/>
+        <a:off x="4933950" y="152400"/>
+        <a:ext cx="6971665" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1800,10 +1815,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1815,8 +1830,7 @@
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="5.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.625"/>
-    <col min="8" max="8" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="2.875" customWidth="1"/>
+    <col min="8" max="9" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2146,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E55" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E57" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -2911,7 +2925,7 @@
         <v>3.4906388888889</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>43101</v>
       </c>
@@ -2939,6 +2953,9 @@
       <c r="H43">
         <v>13</v>
       </c>
+      <c r="I43">
+        <v>2018</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
@@ -2998,7 +3015,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B55" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B57" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3221,7 +3238,7 @@
         <v>3.5</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G53:G55" si="16">E53-5.366*54</f>
+        <f t="shared" ref="G53:G57" si="16">E53-5.366*54</f>
         <v>0.0818333333330088</v>
       </c>
       <c r="H53">
@@ -3284,6 +3301,64 @@
       </c>
       <c r="I55" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2">
+        <v>43320</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="14"/>
+        <v>292</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>25</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>292.850694444444</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="16"/>
+        <v>3.08669444444445</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="2">
+        <v>43321</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="14"/>
+        <v>293</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>293.852777777778</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="16"/>
+        <v>4.08877777777775</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,10 +78,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,23 +100,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -125,14 +109,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,16 +123,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,8 +160,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,48 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +279,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,79 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,19 +363,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,30 +421,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -431,11 +431,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,24 +496,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,23 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,17 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,10 +1186,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$57</c:f>
+              <c:f>Sheet1!$G$46:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1225,16 +1225,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.08877777777775</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.09641666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$57</c:f>
+              <c:f>Sheet1!$F$46:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1270,6 +1273,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,10 +1821,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2160,7 +2166,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E57" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E58" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -3015,7 +3021,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B57" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B58" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3238,7 +3244,7 @@
         <v>3.5</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G53:G57" si="16">E53-5.366*54</f>
+        <f t="shared" ref="G53:G58" si="16">E53-5.366*54</f>
         <v>0.0818333333330088</v>
       </c>
       <c r="H53">
@@ -3359,6 +3365,35 @@
       </c>
       <c r="I57" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="2">
+        <v>43322</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="14"/>
+        <v>294</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>39</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>294.860416666667</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="16"/>
+        <v>5.09641666666664</v>
+      </c>
+      <c r="I58" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,11 +77,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,6 +111,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,7 +146,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +170,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,38 +184,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,9 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,22 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,79 +285,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,6 +351,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -363,61 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,39 +466,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,17 +505,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,10 +1186,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$58</c:f>
+              <c:f>Sheet1!$G$46:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1228,16 +1228,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.09641666666664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.72000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$58</c:f>
+              <c:f>Sheet1!$F$46:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1276,6 +1279,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,10 +1827,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2166,7 +2172,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E58" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E59" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -3021,7 +3027,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B58" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B59" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3244,7 +3250,7 @@
         <v>3.5</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G53:G58" si="16">E53-5.366*54</f>
+        <f t="shared" ref="G53:G59" si="16">E53-5.366*54</f>
         <v>0.0818333333330088</v>
       </c>
       <c r="H53">
@@ -3393,6 +3399,38 @@
         <v>5.09641666666664</v>
       </c>
       <c r="I58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="14"/>
+        <v>297</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>297.85</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="G59">
+        <f>E59-5.366*55</f>
+        <v>2.72000000000003</v>
+      </c>
+      <c r="H59">
+        <v>55</v>
+      </c>
+      <c r="I59" t="s">
         <v>9</v>
       </c>
     </row>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1186,10 +1186,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$59</c:f>
+              <c:f>Sheet1!$G$46:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1231,16 +1231,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.72277777777776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$59</c:f>
+              <c:f>Sheet1!$F$46:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1282,6 +1285,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,10 +1833,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2172,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E59" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E60" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -3027,7 +3033,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B59" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B60" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3432,6 +3438,35 @@
       </c>
       <c r="I59" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="14"/>
+        <v>299</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>28</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>299.852777777778</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G60">
+        <f>E60-5.366*55</f>
+        <v>4.72277777777776</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -77,40 +77,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +190,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -234,36 +234,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -387,6 +357,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,30 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -466,6 +442,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +505,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,10 +1186,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$60</c:f>
+              <c:f>Sheet1!$G$46:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1234,16 +1234,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.72277777777776</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.32622222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$60</c:f>
+              <c:f>Sheet1!$F$46:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1288,6 +1291,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,8 +1527,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>113665</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>360680</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:to>
@@ -1533,7 +1539,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4933950" y="152400"/>
-        <a:ext cx="6971665" cy="5742305"/>
+        <a:ext cx="8590280" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1833,10 +1839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2178,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E60" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E61" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="1">
@@ -3033,7 +3039,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B60" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B61" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3430,7 +3436,7 @@
         <v>4.3</v>
       </c>
       <c r="G59">
-        <f>E59-5.366*55</f>
+        <f t="shared" ref="G59:G61" si="17">E59-5.366*55</f>
         <v>2.72000000000003</v>
       </c>
       <c r="H59">
@@ -3462,11 +3468,43 @@
         <v>3.4</v>
       </c>
       <c r="G60">
-        <f>E60-5.366*55</f>
+        <f t="shared" si="17"/>
         <v>4.72277777777776</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="2">
+        <v>43331</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="14"/>
+        <v>303</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>44</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>303.822222222222</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <f>E61-5.366*56</f>
+        <v>3.32622222222221</v>
+      </c>
+      <c r="H61">
+        <v>56</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="16980" windowHeight="10935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="delta_cep" sheetId="1" r:id="rId1"/>
+    <sheet name="mu_cep" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -81,6 +81,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,8 +130,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,68 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,49 +261,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,6 +303,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,67 +357,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,15 +490,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,45 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,144 +548,150 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,7 +866,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$45</c:f>
+              <c:f>delta_cep!$G$2:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -1001,7 +1007,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$45</c:f>
+              <c:f>delta_cep!$F$2:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="44"/>
@@ -1186,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$61</c:f>
+              <c:f>delta_cep!$G$46:$G$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1237,16 +1243,31 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.32622222222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.35538888888891</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.99286111111115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.620611111111032</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.63033333333306</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.66019444444447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$46:$F$61</c:f>
+              <c:f>delta_cep!$F$46:$F$66</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1293,6 +1314,21 @@
                   <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1839,10 +1875,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1852,7 +1888,7 @@
     <col min="3" max="3" width="4.625" customWidth="1"/>
     <col min="4" max="4" width="4.875" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.625"/>
     <col min="8" max="9" width="4.625" customWidth="1"/>
   </cols>
@@ -1873,7 +1909,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1887,7 +1923,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>43028</v>
       </c>
       <c r="B2">
@@ -1903,7 +1939,7 @@
         <f>(B2*1440+C2*60+D2)/1440</f>
         <v>0.765972222222222</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>3.6</v>
       </c>
       <c r="G2">
@@ -1915,7 +1951,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>43029</v>
       </c>
       <c r="B3">
@@ -1931,7 +1967,7 @@
         <f t="shared" ref="E3:G12" si="0">(B3*1440+C3*60+D3)/1440</f>
         <v>1.82361111111111</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>4</v>
       </c>
       <c r="G3">
@@ -1940,7 +1976,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>43030</v>
       </c>
       <c r="B4">
@@ -1956,7 +1992,7 @@
         <f t="shared" si="0"/>
         <v>2.90833333333333</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>4.2</v>
       </c>
       <c r="G4">
@@ -1965,7 +2001,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>43031</v>
       </c>
       <c r="B5">
@@ -1981,7 +2017,7 @@
         <f>(B5*1440+C5*60+D5)/1440</f>
         <v>3.85763888888889</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>3.4</v>
       </c>
       <c r="G5">
@@ -1993,7 +2029,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>43032</v>
       </c>
       <c r="B6">
@@ -2009,7 +2045,7 @@
         <f t="shared" si="0"/>
         <v>4.75277777777778</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>3.5</v>
       </c>
       <c r="G6">
@@ -2018,7 +2054,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>43033</v>
       </c>
       <c r="B7">
@@ -2034,7 +2070,7 @@
         <f t="shared" si="0"/>
         <v>5.83263888888889</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>3.7</v>
       </c>
       <c r="G7">
@@ -2043,7 +2079,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>43034</v>
       </c>
       <c r="B8">
@@ -2059,7 +2095,7 @@
         <f t="shared" si="0"/>
         <v>6.84236111111111</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>4.1</v>
       </c>
       <c r="G8">
@@ -2068,7 +2104,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>43035</v>
       </c>
       <c r="B9">
@@ -2084,7 +2120,7 @@
         <f t="shared" si="0"/>
         <v>7.92222222222222</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>4.3</v>
       </c>
       <c r="G9">
@@ -2093,7 +2129,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>43037</v>
       </c>
       <c r="B10">
@@ -2109,7 +2145,7 @@
         <f t="shared" si="0"/>
         <v>9.80625</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>3.4</v>
       </c>
       <c r="G10">
@@ -2121,7 +2157,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>43038</v>
       </c>
       <c r="B11">
@@ -2137,7 +2173,7 @@
         <f t="shared" si="0"/>
         <v>10.9180555555556</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>3.6</v>
       </c>
       <c r="G11">
@@ -2146,7 +2182,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>43039</v>
       </c>
       <c r="B12">
@@ -2162,7 +2198,7 @@
         <f t="shared" si="0"/>
         <v>11.8979166666667</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>3.8</v>
       </c>
       <c r="G12">
@@ -2171,7 +2207,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>43040</v>
       </c>
       <c r="B13">
@@ -2184,10 +2220,10 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E61" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E66" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>4</v>
       </c>
       <c r="G13">
@@ -2196,7 +2232,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>43041</v>
       </c>
       <c r="B14">
@@ -2212,7 +2248,7 @@
         <f t="shared" si="4"/>
         <v>13.9125</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>3.7</v>
       </c>
       <c r="G14">
@@ -2221,7 +2257,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>43044</v>
       </c>
       <c r="B15">
@@ -2237,7 +2273,7 @@
         <f t="shared" si="4"/>
         <v>16.7548611111111</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>3.5</v>
       </c>
       <c r="G15">
@@ -2249,7 +2285,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>43047</v>
       </c>
       <c r="B16">
@@ -2265,7 +2301,7 @@
         <f t="shared" si="4"/>
         <v>19.8326388888889</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>3.7</v>
       </c>
       <c r="G16">
@@ -2274,7 +2310,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>43048</v>
       </c>
       <c r="B17">
@@ -2290,7 +2326,7 @@
         <f t="shared" si="4"/>
         <v>20.7777777777778</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>3.5</v>
       </c>
       <c r="G17">
@@ -2299,7 +2335,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>43050</v>
       </c>
       <c r="B18">
@@ -2315,7 +2351,7 @@
         <f t="shared" si="4"/>
         <v>22.7736111111111</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>3.9</v>
       </c>
       <c r="G18">
@@ -2324,7 +2360,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>43051</v>
       </c>
       <c r="B19">
@@ -2340,7 +2376,7 @@
         <f t="shared" si="4"/>
         <v>23.7472222222222</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>4.2</v>
       </c>
       <c r="G19">
@@ -2349,7 +2385,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>43054</v>
       </c>
       <c r="B20">
@@ -2365,7 +2401,7 @@
         <f t="shared" si="4"/>
         <v>26.7854166666667</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>3.5</v>
       </c>
       <c r="G20">
@@ -2377,7 +2413,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>43057</v>
       </c>
       <c r="B21">
@@ -2393,7 +2429,7 @@
         <f t="shared" si="4"/>
         <v>29.9131944444444</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>3.8</v>
       </c>
       <c r="G21">
@@ -2402,7 +2438,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>43059</v>
       </c>
       <c r="B22">
@@ -2418,7 +2454,7 @@
         <f t="shared" si="4"/>
         <v>31.8409722222222</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>3.4</v>
       </c>
       <c r="G22">
@@ -2430,7 +2466,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>43062</v>
       </c>
       <c r="B23">
@@ -2446,7 +2482,7 @@
         <f t="shared" si="4"/>
         <v>34.7909722222222</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>4</v>
       </c>
       <c r="G23">
@@ -2455,7 +2491,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>43065</v>
       </c>
       <c r="B24">
@@ -2471,7 +2507,7 @@
         <f t="shared" si="4"/>
         <v>37.7479166666667</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>3.5</v>
       </c>
       <c r="G24">
@@ -2483,7 +2519,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>43066</v>
       </c>
       <c r="B25">
@@ -2499,7 +2535,7 @@
         <f t="shared" si="4"/>
         <v>38.8375</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>3.7</v>
       </c>
       <c r="G25">
@@ -2508,7 +2544,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>43070</v>
       </c>
       <c r="B26">
@@ -2524,7 +2560,7 @@
         <f t="shared" si="4"/>
         <v>42.85625</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>3.4</v>
       </c>
       <c r="G26">
@@ -2536,7 +2572,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>43074</v>
       </c>
       <c r="B27">
@@ -2552,7 +2588,7 @@
         <f t="shared" si="4"/>
         <v>46.8166666666667</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>3.4</v>
       </c>
       <c r="G27">
@@ -2564,7 +2600,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>43077</v>
       </c>
       <c r="B28">
@@ -2581,7 +2617,7 @@
         <f t="shared" si="4"/>
         <v>49.925</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>4</v>
       </c>
       <c r="G28">
@@ -2590,7 +2626,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>43078</v>
       </c>
       <c r="B29">
@@ -2606,7 +2642,7 @@
         <f t="shared" si="4"/>
         <v>50.7375</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>4.2</v>
       </c>
       <c r="G29">
@@ -2615,7 +2651,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>43078</v>
       </c>
       <c r="B30">
@@ -2631,7 +2667,7 @@
         <f t="shared" si="4"/>
         <v>50.9215277777778</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>4.3</v>
       </c>
       <c r="G30">
@@ -2640,7 +2676,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>43079</v>
       </c>
       <c r="B31">
@@ -2656,7 +2692,7 @@
         <f t="shared" si="4"/>
         <v>51.7513888888889</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>4</v>
       </c>
       <c r="G31">
@@ -2665,7 +2701,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>43080</v>
       </c>
       <c r="B32">
@@ -2681,7 +2717,7 @@
         <f t="shared" si="4"/>
         <v>52.8298611111111</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>3.4</v>
       </c>
       <c r="G32">
@@ -2693,7 +2729,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>43085</v>
       </c>
       <c r="B33">
@@ -2709,7 +2745,7 @@
         <f t="shared" si="4"/>
         <v>57.9173611111111</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="4">
         <v>3.5</v>
       </c>
       <c r="G33">
@@ -2721,7 +2757,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>43086</v>
       </c>
       <c r="B34">
@@ -2737,7 +2773,7 @@
         <f t="shared" si="4"/>
         <v>58.8409722222222</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>3.7</v>
       </c>
       <c r="G34">
@@ -2746,7 +2782,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>43087</v>
       </c>
       <c r="B35">
@@ -2762,7 +2798,7 @@
         <f t="shared" si="4"/>
         <v>59.84375</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="4">
         <v>3.9</v>
       </c>
       <c r="G35">
@@ -2771,7 +2807,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>43088</v>
       </c>
       <c r="B36">
@@ -2787,7 +2823,7 @@
         <f t="shared" si="4"/>
         <v>60.8340277777778</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="4">
         <v>4</v>
       </c>
       <c r="G36">
@@ -2796,7 +2832,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>43089</v>
       </c>
       <c r="B37">
@@ -2812,7 +2848,7 @@
         <f t="shared" si="4"/>
         <v>61.8291666666667</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="4">
         <v>4.3</v>
       </c>
       <c r="G37">
@@ -2821,7 +2857,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>43090</v>
       </c>
       <c r="B38">
@@ -2837,7 +2873,7 @@
         <f t="shared" si="4"/>
         <v>62.9583333333333</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="4">
         <v>3.3</v>
       </c>
       <c r="G38">
@@ -2849,7 +2885,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>43091</v>
       </c>
       <c r="B39">
@@ -2865,7 +2901,7 @@
         <f t="shared" si="4"/>
         <v>63.8902777777778</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="4">
         <v>3.5</v>
       </c>
       <c r="G39">
@@ -2874,7 +2910,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>43093</v>
       </c>
       <c r="B40">
@@ -2891,7 +2927,7 @@
         <f t="shared" si="4"/>
         <v>65.7534722222222</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="4">
         <v>4</v>
       </c>
       <c r="G40">
@@ -2900,7 +2936,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>43094</v>
       </c>
       <c r="B41">
@@ -2916,7 +2952,7 @@
         <f t="shared" si="4"/>
         <v>66.8777777777778</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="4">
         <v>4.2</v>
       </c>
       <c r="G41">
@@ -2925,7 +2961,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>43095</v>
       </c>
       <c r="B42">
@@ -2941,7 +2977,7 @@
         <f t="shared" si="4"/>
         <v>67.8826388888889</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="4">
         <v>4</v>
       </c>
       <c r="G42">
@@ -2950,7 +2986,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>43101</v>
       </c>
       <c r="B43">
@@ -2967,7 +3003,7 @@
         <f t="shared" si="4"/>
         <v>73.7756944444444</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="4">
         <v>3.5</v>
       </c>
       <c r="G43">
@@ -2982,7 +3018,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43114</v>
       </c>
       <c r="B44">
@@ -2998,7 +3034,7 @@
         <f t="shared" si="4"/>
         <v>86.8277777777778</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="4">
         <v>3.8</v>
       </c>
       <c r="G44">
@@ -3010,7 +3046,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>43115</v>
       </c>
       <c r="B45">
@@ -3026,7 +3062,7 @@
         <f t="shared" si="4"/>
         <v>87.8270833333333</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="4">
         <v>4.1</v>
       </c>
       <c r="G45">
@@ -3035,11 +3071,11 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B61" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B66" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3052,7 +3088,7 @@
         <f t="shared" si="4"/>
         <v>272.917361111111</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="4">
         <v>3.4</v>
       </c>
       <c r="G46">
@@ -3064,7 +3100,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>43305</v>
       </c>
       <c r="B47">
@@ -3081,7 +3117,7 @@
         <f t="shared" si="4"/>
         <v>277.901388888889</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="4">
         <v>3.3</v>
       </c>
       <c r="G47">
@@ -3093,7 +3129,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>43311</v>
       </c>
       <c r="B48">
@@ -3110,7 +3146,7 @@
         <f t="shared" si="4"/>
         <v>283.893055555556</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="4">
         <v>3.4</v>
       </c>
       <c r="G48">
@@ -3122,7 +3158,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>43312</v>
       </c>
       <c r="B49">
@@ -3139,7 +3175,7 @@
         <f t="shared" si="4"/>
         <v>284.890972222222</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="4">
         <v>3.8</v>
       </c>
       <c r="G49">
@@ -3154,7 +3190,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>43313</v>
       </c>
       <c r="B50">
@@ -3171,7 +3207,7 @@
         <f t="shared" si="4"/>
         <v>285.861805555556</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="4">
         <v>3.9</v>
       </c>
       <c r="G50">
@@ -3183,7 +3219,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>43315</v>
       </c>
       <c r="B51">
@@ -3200,7 +3236,7 @@
         <f t="shared" si="4"/>
         <v>287.878472222222</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="4">
         <v>3.7</v>
       </c>
       <c r="G51">
@@ -3212,7 +3248,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>43316</v>
       </c>
       <c r="B52">
@@ -3229,7 +3265,7 @@
         <f t="shared" si="4"/>
         <v>288.859027777778</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="4">
         <v>3.4</v>
       </c>
       <c r="G52">
@@ -3241,7 +3277,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>43317</v>
       </c>
       <c r="B53">
@@ -3258,7 +3294,7 @@
         <f t="shared" si="4"/>
         <v>289.845833333333</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="4">
         <v>3.5</v>
       </c>
       <c r="G53">
@@ -3273,7 +3309,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>43319</v>
       </c>
       <c r="B54">
@@ -3290,7 +3326,7 @@
         <f t="shared" si="4"/>
         <v>291.052777777778</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="4">
         <v>3.9</v>
       </c>
       <c r="G54">
@@ -3299,7 +3335,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>43319</v>
       </c>
       <c r="B55">
@@ -3316,7 +3352,7 @@
         <f t="shared" si="4"/>
         <v>291.870833333333</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="4">
         <v>4.1</v>
       </c>
       <c r="G55">
@@ -3328,7 +3364,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>43320</v>
       </c>
       <c r="B56">
@@ -3345,7 +3381,7 @@
         <f t="shared" si="4"/>
         <v>292.850694444444</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="4">
         <v>4.2</v>
       </c>
       <c r="G56">
@@ -3357,7 +3393,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>43321</v>
       </c>
       <c r="B57">
@@ -3374,7 +3410,7 @@
         <f t="shared" si="4"/>
         <v>293.852777777778</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="4">
         <v>3.4</v>
       </c>
       <c r="G57">
@@ -3386,7 +3422,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>43322</v>
       </c>
       <c r="B58">
@@ -3403,7 +3439,7 @@
         <f t="shared" si="4"/>
         <v>294.860416666667</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="4">
         <v>3.5</v>
       </c>
       <c r="G58">
@@ -3415,7 +3451,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>43325</v>
       </c>
       <c r="B59">
@@ -3432,7 +3468,7 @@
         <f t="shared" si="4"/>
         <v>297.85</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="4">
         <v>4.3</v>
       </c>
       <c r="G59">
@@ -3447,7 +3483,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>43327</v>
       </c>
       <c r="B60">
@@ -3464,7 +3500,7 @@
         <f t="shared" si="4"/>
         <v>299.852777777778</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="4">
         <v>3.4</v>
       </c>
       <c r="G60">
@@ -3476,7 +3512,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>43331</v>
       </c>
       <c r="B61">
@@ -3493,11 +3529,11 @@
         <f t="shared" si="4"/>
         <v>303.822222222222</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="4">
         <v>4</v>
       </c>
       <c r="G61">
-        <f>E61-5.366*56</f>
+        <f t="shared" ref="G61:G63" si="18">E61-5.366*56</f>
         <v>3.32622222222221</v>
       </c>
       <c r="H61">
@@ -3505,6 +3541,154 @@
       </c>
       <c r="I61" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="3">
+        <v>43333</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="14"/>
+        <v>305</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>305.851388888889</v>
+      </c>
+      <c r="F62" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="18"/>
+        <v>5.35538888888891</v>
+      </c>
+      <c r="I62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3">
+        <v>43335</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="14"/>
+        <v>307</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>31</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>307.854861111111</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4.4</v>
+      </c>
+      <c r="G63">
+        <f>E63-5.366*57</f>
+        <v>1.99286111111115</v>
+      </c>
+      <c r="H63">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="3">
+        <v>43339</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="14"/>
+        <v>311</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>311.848611111111</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ref="G64:G66" si="19">E64-5.366*58</f>
+        <v>0.620611111111032</v>
+      </c>
+      <c r="H64">
+        <v>58</v>
+      </c>
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="3">
+        <v>43340</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="14"/>
+        <v>312</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>36</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>312.858333333333</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="19"/>
+        <v>1.63033333333306</v>
+      </c>
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="3">
+        <v>43341</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="14"/>
+        <v>313</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>313.888194444444</v>
+      </c>
+      <c r="F66" s="4">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="19"/>
+        <v>2.66019444444447</v>
+      </c>
+      <c r="I66" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3518,14 +3702,111 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>43327</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <f>(B2*1440+C2*60+D2)/1440</f>
+        <v>0.852777777777778</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>43331</v>
+      </c>
+      <c r="B3">
+        <f>A3-A2+B2</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <f>(B3*1440+C3*60+D3)/1440</f>
+        <v>4.82222222222222</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>43339</v>
+      </c>
+      <c r="B4">
+        <f>A4-A3+B3</f>
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <f>(B4*1440+C4*60+D4)/1440</f>
+        <v>12.8486111111111</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,25 +77,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,60 +145,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,8 +184,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,18 +255,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,7 +267,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,19 +369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,55 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,30 +451,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,153 +504,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$66</c:f>
+              <c:f>delta_cep!$G$46:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1258,16 +1258,25 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.66019444444447</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.61297222222225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.24072222222225</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.26224999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$66</c:f>
+              <c:f>delta_cep!$F$46:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1330,6 +1339,15 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1563,8 +1581,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>360680</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>226695</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:to>
@@ -1575,7 +1593,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4933950" y="152400"/>
-        <a:ext cx="8590280" cy="5742305"/>
+        <a:ext cx="9142095" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1875,10 +1893,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2220,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E66" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E69" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="4">
@@ -3075,7 +3093,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B66" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B69" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3623,7 +3641,7 @@
         <v>3.6</v>
       </c>
       <c r="G64">
-        <f t="shared" ref="G64:G66" si="19">E64-5.366*58</f>
+        <f t="shared" ref="G64:G68" si="19">E64-5.366*58</f>
         <v>0.620611111111032</v>
       </c>
       <c r="H64">
@@ -3689,6 +3707,96 @@
       </c>
       <c r="I66" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="3">
+        <v>43342</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="14"/>
+        <v>314</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="4"/>
+        <v>314.840972222222</v>
+      </c>
+      <c r="F67" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="19"/>
+        <v>3.61297222222225</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="3">
+        <v>43347</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="14"/>
+        <v>319</v>
+      </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>319.834722222222</v>
+      </c>
+      <c r="F68" s="4">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <f>E68-5.366*59</f>
+        <v>3.24072222222225</v>
+      </c>
+      <c r="H68">
+        <v>59</v>
+      </c>
+      <c r="I68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="3">
+        <v>43348</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="14"/>
+        <v>320</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>33</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>320.85625</v>
+      </c>
+      <c r="F69" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G69">
+        <f>E69-5.366*59</f>
+        <v>4.26224999999999</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3702,13 +3810,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="5.75" customWidth="1"/>
@@ -3752,7 +3860,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f>(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E6" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -3777,7 +3885,7 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <f>(B3*1440+C3*60+D3)/1440</f>
+        <f t="shared" si="0"/>
         <v>4.82222222222222</v>
       </c>
       <c r="F3" s="1">
@@ -3799,11 +3907,55 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <f>(B4*1440+C4*60+D4)/1440</f>
+        <f t="shared" si="0"/>
         <v>12.8486111111111</v>
       </c>
       <c r="F4" s="1">
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>43342</v>
+      </c>
+      <c r="B5">
+        <f>A5-A4+B4</f>
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15.8409722222222</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>43347</v>
+      </c>
+      <c r="B6">
+        <f>A6-A5+B5</f>
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20.8347222222222</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,8 +77,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,67 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,42 +217,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,36 +237,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,54 +250,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,6 +309,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,6 +352,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,26 +431,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +461,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -481,6 +481,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,177 +528,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$69</c:f>
+              <c:f>delta_cep!$G$46:$G$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1267,16 +1267,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4.26224999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8705555555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$69</c:f>
+              <c:f>delta_cep!$F$46:$F$70</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1348,6 +1351,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,10 +1899,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2238,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E69" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E70" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="4">
@@ -3093,7 +3099,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B69" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B70" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3760,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="G68">
-        <f>E68-5.366*59</f>
+        <f t="shared" ref="G68:G70" si="20">E68-5.366*59</f>
         <v>3.24072222222225</v>
       </c>
       <c r="H68">
@@ -3792,11 +3798,43 @@
         <v>3.3</v>
       </c>
       <c r="G69">
-        <f>E69-5.366*59</f>
+        <f t="shared" si="20"/>
         <v>4.26224999999999</v>
       </c>
       <c r="I69" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="3">
+        <v>43351</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="14"/>
+        <v>323</v>
+      </c>
+      <c r="C70">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>56</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>323.830555555556</v>
+      </c>
+      <c r="F70" s="4">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <f>E70-5.366*60</f>
+        <v>1.8705555555556</v>
+      </c>
+      <c r="H70">
+        <v>60</v>
+      </c>
+      <c r="I70" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3810,13 +3848,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="5.75" customWidth="1"/>
@@ -3860,7 +3898,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E6" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E7" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -3875,7 +3913,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f>A3-A2+B2</f>
+        <f t="shared" ref="B3:B7" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -3897,7 +3935,7 @@
         <v>43339</v>
       </c>
       <c r="B4">
-        <f>A4-A3+B3</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C4">
@@ -3919,7 +3957,7 @@
         <v>43342</v>
       </c>
       <c r="B5">
-        <f>A5-A4+B4</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C5">
@@ -3941,7 +3979,7 @@
         <v>43347</v>
       </c>
       <c r="B6">
-        <f>A6-A5+B5</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C6">
@@ -3956,6 +3994,28 @@
       </c>
       <c r="F6" s="1">
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>43351</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>24.8305555555556</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -84,9 +84,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,9 +151,40 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,13 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -191,29 +214,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -309,6 +309,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,24 +369,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,18 +394,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +447,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -470,30 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -508,26 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -560,115 +560,115 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$70</c:f>
+              <c:f>delta_cep!$G$46:$G$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1270,16 +1270,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1.8705555555556</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.87333333333333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.74061111111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$70</c:f>
+              <c:f>delta_cep!$F$46:$F$72</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1353,6 +1359,12 @@
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1899,10 +1911,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2244,7 +2256,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E70" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E72" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="4">
@@ -3099,7 +3111,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B70" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B72" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3827,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="G70">
-        <f>E70-5.366*60</f>
+        <f t="shared" ref="G70:G72" si="21">E70-5.366*60</f>
         <v>1.8705555555556</v>
       </c>
       <c r="H70">
@@ -3835,6 +3847,64 @@
       </c>
       <c r="I70" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="3">
+        <v>43352</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="14"/>
+        <v>324</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>324.833333333333</v>
+      </c>
+      <c r="F71" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="21"/>
+        <v>2.87333333333333</v>
+      </c>
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="3">
+        <v>43367</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="14"/>
+        <v>339</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>339.798611111111</v>
+      </c>
+      <c r="F72" s="4">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <f>E72-5.366*63</f>
+        <v>1.74061111111109</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3848,13 +3918,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="5.75" customWidth="1"/>
@@ -3898,7 +3968,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E7" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E8" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -3913,7 +3983,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B7" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B8" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -4016,6 +4086,28 @@
       </c>
       <c r="F7" s="1">
         <v>3.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>43367</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>40.7986111111111</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -63,21 +63,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -91,16 +84,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,13 +129,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,6 +142,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -157,16 +172,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +197,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -197,32 +213,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,18 +273,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,13 +285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,25 +357,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,13 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,37 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,17 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,10 +481,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -483,9 +490,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,15 +510,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$72</c:f>
+              <c:f>delta_cep!$G$46:$G$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1276,16 +1276,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.74061111111109</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.51975000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$72</c:f>
+              <c:f>delta_cep!$F$46:$F$73</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1365,6 +1368,9 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1911,10 +1917,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2256,7 +2262,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E72" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E73" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="4">
@@ -3111,7 +3117,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B72" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B73" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3905,6 +3911,35 @@
       </c>
       <c r="I72" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="3">
+        <v>43372</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="14"/>
+        <v>344</v>
+      </c>
+      <c r="C73">
+        <v>22</v>
+      </c>
+      <c r="D73">
+        <v>39</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>344.94375</v>
+      </c>
+      <c r="F73" s="4">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <f>E73-5.366*64</f>
+        <v>1.51975000000004</v>
+      </c>
+      <c r="I73" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3918,13 +3953,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="5.75" customWidth="1"/>
@@ -3968,7 +4003,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E8" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E9" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -3983,7 +4018,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B8" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B9" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -4108,6 +4143,28 @@
       </c>
       <c r="F8" s="1">
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>43372</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>45.94375</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,16 +62,39 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -91,16 +114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +127,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,29 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +162,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -172,41 +192,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +214,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,13 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,79 +285,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,31 +327,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,25 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,6 +481,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,67 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$73</c:f>
+              <c:f>delta_cep!$G$46:$G$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1279,16 +1279,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.51975000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.42669444444448</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.46211111111114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$73</c:f>
+              <c:f>delta_cep!$F$46:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1372,6 +1378,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,10 +1929,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2262,7 +2274,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E73" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E75" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="4">
@@ -3117,7 +3129,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B73" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B75" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3935,10 +3947,68 @@
         <v>4</v>
       </c>
       <c r="G73">
-        <f>E73-5.366*64</f>
+        <f t="shared" ref="G73:G75" si="22">E73-5.366*64</f>
         <v>1.51975000000004</v>
       </c>
       <c r="I73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="3">
+        <v>43374</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="14"/>
+        <v>346</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>346.850694444444</v>
+      </c>
+      <c r="F74" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="22"/>
+        <v>3.42669444444448</v>
+      </c>
+      <c r="I74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="3">
+        <v>43375</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="14"/>
+        <v>347</v>
+      </c>
+      <c r="C75">
+        <v>21</v>
+      </c>
+      <c r="D75">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>347.886111111111</v>
+      </c>
+      <c r="F75" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="22"/>
+        <v>4.46211111111114</v>
+      </c>
+      <c r="I75" t="s">
         <v>9</v>
       </c>
     </row>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -63,10 +63,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -86,7 +86,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,9 +114,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,37 +123,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,11 +144,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,14 +190,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,21 +214,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,49 +291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,73 +309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +345,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,17 +431,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,16 +455,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -487,11 +487,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,25 +504,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$75</c:f>
+              <c:f>delta_cep!$G$46:$G$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1285,16 +1285,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>4.46211111111114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0447222222222763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$75</c:f>
+              <c:f>delta_cep!$F$46:$F$76</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1384,6 +1387,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,10 +1935,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2274,7 +2280,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E75" si="4">(B13*1440+C13*60+D13)/1440</f>
+        <f t="shared" ref="E13:E76" si="4">(B13*1440+C13*60+D13)/1440</f>
         <v>12.88125</v>
       </c>
       <c r="F13" s="4">
@@ -3129,7 +3135,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B75" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B76" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3947,7 +3953,7 @@
         <v>4</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G73:G75" si="22">E73-5.366*64</f>
+        <f t="shared" ref="G73:G76" si="22">E73-5.366*64</f>
         <v>1.51975000000004</v>
       </c>
       <c r="I73" t="s">
@@ -4009,6 +4015,35 @@
         <v>4.46211111111114</v>
       </c>
       <c r="I75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="3">
+        <v>43376</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="14"/>
+        <v>348</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>348.834722222222</v>
+      </c>
+      <c r="F76" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G76">
+        <f>E76-5.366*65</f>
+        <v>0.0447222222222763</v>
+      </c>
+      <c r="I76" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4023,10 +4058,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4073,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E9" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E10" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4088,7 +4123,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B9" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B10" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -4235,6 +4270,28 @@
       </c>
       <c r="F9" s="1">
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>43376</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>49.8347222222222</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,39 +62,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -114,8 +91,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,24 +108,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +136,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -166,15 +157,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -184,13 +167,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +190,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,7 +214,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +237,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,37 +321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,55 +345,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,13 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +387,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,37 +465,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,7 +483,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,13 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$76</c:f>
+              <c:f>delta_cep!$G$46:$G$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1218,7 +1218,7 @@
                   <c:v>4.46102777777782</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0818333333330088</c:v>
+                  <c:v>0.0818333333333499</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.2887777777778</c:v>
@@ -1251,10 +1251,10 @@
                   <c:v>1.99286111111115</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.620611111111032</c:v>
+                  <c:v>0.620611111111145</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.63033333333306</c:v>
+                  <c:v>1.6303333333334</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.66019444444447</c:v>
@@ -1288,16 +1288,28 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.0447222222222763</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.01972222222224</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.12111111111113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.03291666666672</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.06000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$76</c:f>
+              <c:f>delta_cep!$F$46:$F$80</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1389,6 +1401,18 @@
                   <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1935,10 +1959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3135,7 +3159,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B76" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B80" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -3359,7 +3383,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53:G59" si="16">E53-5.366*54</f>
-        <v>0.0818333333330088</v>
+        <v>0.0818333333333499</v>
       </c>
       <c r="H53">
         <v>54</v>
@@ -3684,7 +3708,7 @@
       </c>
       <c r="G64">
         <f t="shared" ref="G64:G68" si="19">E64-5.366*58</f>
-        <v>0.620611111111032</v>
+        <v>0.620611111111145</v>
       </c>
       <c r="H64">
         <v>58</v>
@@ -3716,7 +3740,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="19"/>
-        <v>1.63033333333306</v>
+        <v>1.6303333333334</v>
       </c>
       <c r="I65" t="s">
         <v>9</v>
@@ -4040,10 +4064,126 @@
         <v>3.6</v>
       </c>
       <c r="G76">
-        <f>E76-5.366*65</f>
+        <f t="shared" ref="G76:G80" si="23">E76-5.366*65</f>
         <v>0.0447222222222763</v>
       </c>
       <c r="I76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="3">
+        <v>43377</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="14"/>
+        <v>349</v>
+      </c>
+      <c r="C77">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>26</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77:E80" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <v>349.809722222222</v>
+      </c>
+      <c r="F77" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="23"/>
+        <v>1.01972222222224</v>
+      </c>
+      <c r="I77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="3">
+        <v>43378</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+      <c r="C78">
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <v>52</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="24"/>
+        <v>350.911111111111</v>
+      </c>
+      <c r="F78" s="4">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="23"/>
+        <v>2.12111111111113</v>
+      </c>
+      <c r="I78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="3">
+        <v>43379</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="14"/>
+        <v>351</v>
+      </c>
+      <c r="C79">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>45</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="24"/>
+        <v>351.822916666667</v>
+      </c>
+      <c r="F79" s="4">
+        <v>4.1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="23"/>
+        <v>3.03291666666672</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="14"/>
+        <v>352</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>24</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="24"/>
+        <v>352.85</v>
+      </c>
+      <c r="F80" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="23"/>
+        <v>4.06000000000006</v>
+      </c>
+      <c r="I80" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4058,10 +4198,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4108,7 +4248,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E10" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E11" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4123,7 +4263,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B10" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B11" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -4292,6 +4432,28 @@
       </c>
       <c r="F10" s="1">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>53.85</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,13 +77,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -91,16 +84,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,8 +107,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +152,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -135,15 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,7 +198,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -172,57 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,12 +234,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -255,7 +249,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +285,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,25 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,25 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,31 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,25 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,26 +503,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,32 +520,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$80</c:f>
+              <c:f>delta_cep!$G$46:$G$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1300,16 +1300,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4.06000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0558333333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.78636111111115</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.70302777777783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$80</c:f>
+              <c:f>delta_cep!$F$46:$F$83</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1414,6 +1423,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,7 +1666,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>226695</xdr:colOff>
+      <xdr:colOff>26035</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:to>
@@ -1659,7 +1677,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4933950" y="152400"/>
-        <a:ext cx="9142095" cy="5742305"/>
+        <a:ext cx="8941435" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1959,10 +1977,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3159,7 +3177,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B80" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B83" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4064,7 +4082,7 @@
         <v>3.6</v>
       </c>
       <c r="G76">
-        <f t="shared" ref="G76:G80" si="23">E76-5.366*65</f>
+        <f t="shared" ref="G76:G83" si="23">E76-5.366*65</f>
         <v>0.0447222222222763</v>
       </c>
       <c r="I76" t="s">
@@ -4086,7 +4104,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E80" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E83" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4184,6 +4202,93 @@
         <v>4.06000000000006</v>
       </c>
       <c r="I80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="14"/>
+        <v>353</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>18</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="24"/>
+        <v>353.845833333333</v>
+      </c>
+      <c r="F81" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="23"/>
+        <v>5.0558333333334</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="14"/>
+        <v>356</v>
+      </c>
+      <c r="C82">
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="24"/>
+        <v>356.942361111111</v>
+      </c>
+      <c r="F82" s="4">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <f>E82-5.366*66</f>
+        <v>2.78636111111115</v>
+      </c>
+      <c r="I82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="14"/>
+        <v>357</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>37</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="24"/>
+        <v>357.859027777778</v>
+      </c>
+      <c r="F83" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G83">
+        <f>E83-5.366*66</f>
+        <v>3.70302777777783</v>
+      </c>
+      <c r="I83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4198,14 +4303,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="9.125"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="5.75" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
@@ -4248,7 +4354,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E11" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E12" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4263,7 +4369,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B11" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B12" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -4453,6 +4559,28 @@
         <v>53.85</v>
       </c>
       <c r="F11" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>57.9423611111111</v>
+      </c>
+      <c r="F12" s="1">
         <v>3.6</v>
       </c>
     </row>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,22 +91,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -122,24 +106,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,22 +127,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -175,8 +134,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,7 +144,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +159,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,16 +180,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,13 +243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,55 +255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,13 +297,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,25 +381,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,37 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,26 +431,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,17 +476,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,8 +488,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,15 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,145 +536,145 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$83</c:f>
+              <c:f>delta_cep!$G$46:$G$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1309,16 +1309,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.70302777777783</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.34188888888889</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.08352777777782</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.56891666666672</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.51405555555561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$83</c:f>
+              <c:f>delta_cep!$F$46:$F$87</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1432,6 +1444,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,10 +2001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3177,7 +3201,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B83" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B87" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4104,7 +4128,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E83" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E87" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4256,7 +4280,7 @@
         <v>4</v>
       </c>
       <c r="G82">
-        <f>E82-5.366*66</f>
+        <f t="shared" ref="G82:G84" si="25">E82-5.366*66</f>
         <v>2.78636111111115</v>
       </c>
       <c r="I82" t="s">
@@ -4285,10 +4309,126 @@
         <v>3.7</v>
       </c>
       <c r="G83">
-        <f>E83-5.366*66</f>
+        <f t="shared" si="25"/>
         <v>3.70302777777783</v>
       </c>
       <c r="I83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="3">
+        <v>43392</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="14"/>
+        <v>364</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>44</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="24"/>
+        <v>364.863888888889</v>
+      </c>
+      <c r="F84" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G84">
+        <f>E84-5.366*67</f>
+        <v>5.34188888888889</v>
+      </c>
+      <c r="I84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="3">
+        <v>43397</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="14"/>
+        <v>369</v>
+      </c>
+      <c r="C85">
+        <v>23</v>
+      </c>
+      <c r="D85">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="24"/>
+        <v>369.971527777778</v>
+      </c>
+      <c r="F85" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ref="G85:G87" si="26">E85-5.366*68</f>
+        <v>5.08352777777782</v>
+      </c>
+      <c r="I85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="3">
+        <v>43399</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="14"/>
+        <v>371</v>
+      </c>
+      <c r="C86">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>45</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="24"/>
+        <v>371.822916666667</v>
+      </c>
+      <c r="F86" s="4">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <f>E86-5.366*69</f>
+        <v>1.56891666666672</v>
+      </c>
+      <c r="I86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="3">
+        <v>43400</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="14"/>
+        <v>372</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>26</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="24"/>
+        <v>372.768055555556</v>
+      </c>
+      <c r="F87" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G87">
+        <f>E87-5.366*69</f>
+        <v>2.51405555555561</v>
+      </c>
+      <c r="I87" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4303,10 +4443,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4314,6 +4454,7 @@
     <col min="1" max="1" width="9.125"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="12.625"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4354,7 +4495,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E12" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E16" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4369,7 +4510,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B12" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B16" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -4582,6 +4723,72 @@
       </c>
       <c r="F12" s="1">
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>43392</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>65.8638888888889</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>43397</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>70.9715277777778</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>43400</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>73.7680555555555</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -77,20 +77,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -99,38 +85,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,16 +100,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,7 +116,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,10 +176,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,9 +199,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,19 +243,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,55 +297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +315,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,61 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,17 +455,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,29 +479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +511,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$87</c:f>
+              <c:f>delta_cep!$G$46:$G$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1321,16 +1321,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2.51405555555561</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.51544444444448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$87</c:f>
+              <c:f>delta_cep!$F$46:$F$88</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1456,6 +1459,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,10 +2007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3201,7 +3207,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B87" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B88" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4128,7 +4134,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E87" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E88" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4396,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="G86">
-        <f>E86-5.366*69</f>
+        <f t="shared" ref="G86:G88" si="27">E86-5.366*69</f>
         <v>1.56891666666672</v>
       </c>
       <c r="I86" t="s">
@@ -4425,10 +4431,39 @@
         <v>4.2</v>
       </c>
       <c r="G87">
-        <f>E87-5.366*69</f>
+        <f t="shared" si="27"/>
         <v>2.51405555555561</v>
       </c>
       <c r="I87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="3">
+        <v>43401</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="14"/>
+        <v>373</v>
+      </c>
+      <c r="C88">
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>28</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="24"/>
+        <v>373.769444444444</v>
+      </c>
+      <c r="F88" s="4">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="27"/>
+        <v>3.51544444444448</v>
+      </c>
+      <c r="I88" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4443,10 +4478,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4789,6 +4824,28 @@
       </c>
       <c r="F15" s="1">
         <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>43401</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>74.7694444444444</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -77,9 +77,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,18 +91,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,14 +108,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,11 +128,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,11 +142,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,8 +181,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -190,43 +227,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -237,19 +237,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +327,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,103 +351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +375,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,25 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,15 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,7 +450,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,21 +466,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +496,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -528,6 +513,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$88</c:f>
+              <c:f>delta_cep!$G$46:$G$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1317,23 +1317,32 @@
                   <c:v>5.08352777777782</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.56891666666672</c:v>
+                  <c:v>1.56891666666706</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.51405555555561</c:v>
+                  <c:v>2.51405555555601</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3.51544444444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.60919444444403</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.32791666666668</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.24041666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$88</c:f>
+              <c:f>delta_cep!$F$46:$F$91</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1461,6 +1470,15 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2007,10 +2025,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3207,7 +3225,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B88" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B91" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4134,7 +4152,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E88" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E91" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4402,8 +4420,8 @@
         <v>4</v>
       </c>
       <c r="G86">
-        <f t="shared" ref="G86:G88" si="27">E86-5.366*69</f>
-        <v>1.56891666666672</v>
+        <f t="shared" ref="G86:G90" si="27">E86-5.366*69</f>
+        <v>1.56891666666706</v>
       </c>
       <c r="I86" t="s">
         <v>9</v>
@@ -4432,7 +4450,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="27"/>
-        <v>2.51405555555561</v>
+        <v>2.51405555555601</v>
       </c>
       <c r="I87" t="s">
         <v>9</v>
@@ -4453,7 +4471,7 @@
         <v>28</v>
       </c>
       <c r="E88">
-        <f t="shared" si="24"/>
+        <f>(B88*1440+C88*60+D88)/1440</f>
         <v>373.769444444444</v>
       </c>
       <c r="F88" s="4">
@@ -4464,6 +4482,93 @@
         <v>3.51544444444448</v>
       </c>
       <c r="I88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="3">
+        <v>43402</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="14"/>
+        <v>374</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89">
+        <v>43</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="24"/>
+        <v>374.863194444444</v>
+      </c>
+      <c r="F89" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="27"/>
+        <v>4.60919444444403</v>
+      </c>
+      <c r="I89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="3">
+        <v>43404</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="14"/>
+        <v>376</v>
+      </c>
+      <c r="C90">
+        <v>22</v>
+      </c>
+      <c r="D90">
+        <v>45</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="24"/>
+        <v>376.947916666667</v>
+      </c>
+      <c r="F90" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G90">
+        <f>E90-5.366*70</f>
+        <v>1.32791666666668</v>
+      </c>
+      <c r="I90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="3">
+        <v>43405</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="14"/>
+        <v>377</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>39</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="24"/>
+        <v>377.860416666667</v>
+      </c>
+      <c r="F91" s="4">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <f>E91-5.366*70</f>
+        <v>2.24041666666665</v>
+      </c>
+      <c r="I91" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4478,10 +4583,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4530,7 +4635,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E16" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E17" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4545,7 +4650,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B16" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B17" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -4845,6 +4950,28 @@
         <v>74.7694444444444</v>
       </c>
       <c r="F16" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>43405</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>78.8604166666667</v>
+      </c>
+      <c r="F17" s="1">
         <v>3.6</v>
       </c>
     </row>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,16 +62,39 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -91,11 +114,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,8 +130,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,68 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,16 +177,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +209,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,31 +237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +285,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,19 +345,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,55 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,49 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,82 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$91</c:f>
+              <c:f>delta_cep!$G$46:$G$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1333,16 +1333,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2.24041666666665</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2452777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$91</c:f>
+              <c:f>delta_cep!$F$46:$F$92</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1480,6 +1483,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,10 +2031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3225,7 +3231,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B91" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B92" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4152,7 +4158,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E91" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E92" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4471,7 +4477,7 @@
         <v>28</v>
       </c>
       <c r="E88">
-        <f>(B88*1440+C88*60+D88)/1440</f>
+        <f t="shared" si="24"/>
         <v>373.769444444444</v>
       </c>
       <c r="F88" s="4">
@@ -4536,7 +4542,7 @@
         <v>3.9</v>
       </c>
       <c r="G90">
-        <f>E90-5.366*70</f>
+        <f t="shared" ref="G90:G92" si="28">E90-5.366*70</f>
         <v>1.32791666666668</v>
       </c>
       <c r="I90" t="s">
@@ -4565,11 +4571,40 @@
         <v>4</v>
       </c>
       <c r="G91">
-        <f>E91-5.366*70</f>
+        <f t="shared" si="28"/>
         <v>2.24041666666665</v>
       </c>
       <c r="I91" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="3">
+        <v>43407</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="14"/>
+        <v>379</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92">
+        <v>46</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="24"/>
+        <v>379.865277777778</v>
+      </c>
+      <c r="F92" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="28"/>
+        <v>4.2452777777778</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4583,10 +4618,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4635,7 +4670,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E17" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E18" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4650,7 +4685,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B17" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B18" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -4973,6 +5008,28 @@
       </c>
       <c r="F17" s="1">
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>43407</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>80.8652777777778</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -63,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -206,9 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,8 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,49 +255,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +285,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,55 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,37 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,142 +536,142 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -813,8 +813,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0457424087659021"/>
-          <c:y val="0.115404180028752"/>
+          <c:x val="0.0332078687593211"/>
+          <c:y val="0.0805706070994144"/>
           <c:w val="0.933828582041044"/>
           <c:h val="0.811611190976446"/>
         </c:manualLayout>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$92</c:f>
+              <c:f>delta_cep!$G$46:$G$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1336,16 +1336,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>4.2452777777778</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.88413888888891</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.516750000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$92</c:f>
+              <c:f>delta_cep!$F$46:$F$94</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1486,6 +1492,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,15 +1726,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>26035</xdr:colOff>
+      <xdr:colOff>302260</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>65405</xdr:rowOff>
+      <xdr:rowOff>84455</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1730,7 +1742,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4933950" y="152400"/>
+        <a:off x="5210175" y="171450"/>
         <a:ext cx="8941435" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2031,10 +2043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3231,7 +3243,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B92" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B94" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4158,7 +4170,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E92" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E94" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4542,7 +4554,7 @@
         <v>3.9</v>
       </c>
       <c r="G90">
-        <f t="shared" ref="G90:G92" si="28">E90-5.366*70</f>
+        <f t="shared" ref="G90:G93" si="28">E90-5.366*70</f>
         <v>1.32791666666668</v>
       </c>
       <c r="I90" t="s">
@@ -4605,6 +4617,64 @@
       </c>
       <c r="I92" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="3">
+        <v>43413</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="14"/>
+        <v>385</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93">
+        <v>53</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="24"/>
+        <v>385.870138888889</v>
+      </c>
+      <c r="F93" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G93">
+        <f>E93-5.366*71</f>
+        <v>4.88413888888891</v>
+      </c>
+      <c r="I93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="3">
+        <v>43414</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="14"/>
+        <v>386</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>51</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="24"/>
+        <v>386.86875</v>
+      </c>
+      <c r="F94" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G94">
+        <f>E94-5.366*72</f>
+        <v>0.516750000000002</v>
+      </c>
+      <c r="I94" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4618,10 +4688,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4670,7 +4740,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E18" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E19" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4685,7 +4755,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B18" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B19" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -5030,6 +5100,28 @@
       </c>
       <c r="F18" s="1">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>43413</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>86.8701388888889</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -77,40 +77,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,19 +129,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,24 +197,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,6 +237,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -255,7 +339,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,73 +387,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,55 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,6 +466,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,41 +522,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$94</c:f>
+              <c:f>delta_cep!$G$46:$G$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1342,16 +1342,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.516750000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.50841666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$94</c:f>
+              <c:f>delta_cep!$F$46:$F$95</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1498,6 +1501,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,10 +2049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3243,7 +3249,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B94" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B95" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4170,7 +4176,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E94" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E95" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4675,6 +4681,35 @@
       </c>
       <c r="I94" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="3">
+        <v>43417</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="14"/>
+        <v>389</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95">
+        <v>39</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="24"/>
+        <v>389.860416666667</v>
+      </c>
+      <c r="F95" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G95">
+        <f>E95-5.366*72</f>
+        <v>3.50841666666668</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4688,10 +4723,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4740,7 +4775,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E19" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E20" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4755,7 +4790,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B19" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B20" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -5122,6 +5157,28 @@
       </c>
       <c r="F19" s="1">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>43417</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>90.8604166666667</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -77,6 +77,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -84,16 +91,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,14 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -124,13 +123,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,24 +142,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,18 +197,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,13 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -222,7 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,18 +273,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,13 +285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,31 +321,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,25 +357,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,43 +393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,17 +461,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,15 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,26 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -814,7 +814,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0332078687593211"/>
-          <c:y val="0.0805706070994144"/>
+          <c:y val="0.0838880902355418"/>
           <c:w val="0.933828582041044"/>
           <c:h val="0.811611190976446"/>
         </c:manualLayout>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$95</c:f>
+              <c:f>delta_cep!$G$46:$G$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1317,16 +1317,16 @@
                   <c:v>5.08352777777782</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.56891666666706</c:v>
+                  <c:v>1.56891666666672</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.51405555555601</c:v>
+                  <c:v>2.51405555555561</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3.51544444444448</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.60919444444403</c:v>
+                  <c:v>4.60919444444448</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1.32791666666668</c:v>
@@ -1345,16 +1345,22 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3.50841666666668</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.77155555555561</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.66877777777785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$95</c:f>
+              <c:f>delta_cep!$F$46:$F$97</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1504,6 +1510,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,10 +2061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3249,7 +3261,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B95" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B97" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4176,7 +4188,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E95" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E97" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4445,7 +4457,7 @@
       </c>
       <c r="G86">
         <f t="shared" ref="G86:G90" si="27">E86-5.366*69</f>
-        <v>1.56891666666706</v>
+        <v>1.56891666666672</v>
       </c>
       <c r="I86" t="s">
         <v>9</v>
@@ -4474,7 +4486,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="27"/>
-        <v>2.51405555555601</v>
+        <v>2.51405555555561</v>
       </c>
       <c r="I87" t="s">
         <v>9</v>
@@ -4532,7 +4544,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="27"/>
-        <v>4.60919444444403</v>
+        <v>4.60919444444448</v>
       </c>
       <c r="I89" t="s">
         <v>9</v>
@@ -4676,7 +4688,7 @@
         <v>3.8</v>
       </c>
       <c r="G94">
-        <f>E94-5.366*72</f>
+        <f t="shared" ref="G94:G96" si="29">E94-5.366*72</f>
         <v>0.516750000000002</v>
       </c>
       <c r="I94" t="s">
@@ -4705,11 +4717,69 @@
         <v>3.4</v>
       </c>
       <c r="G95">
-        <f>E95-5.366*72</f>
+        <f t="shared" si="29"/>
         <v>3.50841666666668</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="3">
+        <v>43427</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="14"/>
+        <v>399</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>32</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="24"/>
+        <v>399.855555555556</v>
+      </c>
+      <c r="F96" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G96">
+        <f>E96-5.366*74</f>
+        <v>2.77155555555561</v>
+      </c>
+      <c r="I96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="3">
+        <v>43428</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="C97">
+        <v>18</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="24"/>
+        <v>400.752777777778</v>
+      </c>
+      <c r="F97" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G97">
+        <f>E97-5.366*74</f>
+        <v>3.66877777777785</v>
+      </c>
+      <c r="I97" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4723,10 +4793,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4775,7 +4845,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E20" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E21" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4790,7 +4860,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B20" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B21" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -5178,6 +5248,28 @@
         <v>90.8604166666667</v>
       </c>
       <c r="F20" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>43427</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>100.855555555556</v>
+      </c>
+      <c r="F21" s="1">
         <v>3.6</v>
       </c>
     </row>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,6 +77,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -84,8 +135,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,56 +166,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -161,38 +179,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,6 +200,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,7 +215,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,25 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +249,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +297,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,55 +327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,31 +363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +399,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,39 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -490,11 +472,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,153 +508,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$97</c:f>
+              <c:f>delta_cep!$G$46:$G$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1351,16 +1351,25 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>3.66877777777785</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.83266666666674</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.44513888888889</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.36388888888888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$97</c:f>
+              <c:f>delta_cep!$F$46:$F$100</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1515,6 +1524,15 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -2061,9 +2079,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -3261,7 +3279,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B97" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B100" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4188,7 +4206,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E97" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E100" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4746,7 +4764,7 @@
         <v>4.2</v>
       </c>
       <c r="G96">
-        <f>E96-5.366*74</f>
+        <f t="shared" ref="G96:G100" si="30">E96-5.366*74</f>
         <v>2.77155555555561</v>
       </c>
       <c r="I96" t="s">
@@ -4775,11 +4793,98 @@
         <v>3.7</v>
       </c>
       <c r="G97">
-        <f>E97-5.366*74</f>
+        <f t="shared" si="30"/>
         <v>3.66877777777785</v>
       </c>
       <c r="I97" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="3">
+        <v>43429</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="14"/>
+        <v>401</v>
+      </c>
+      <c r="C98">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="24"/>
+        <v>401.916666666667</v>
+      </c>
+      <c r="F98" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="30"/>
+        <v>4.83266666666674</v>
+      </c>
+      <c r="I98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="3">
+        <v>43433</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="14"/>
+        <v>405</v>
+      </c>
+      <c r="C99">
+        <v>21</v>
+      </c>
+      <c r="D99">
+        <v>29</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="24"/>
+        <v>405.895138888889</v>
+      </c>
+      <c r="F99" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G99">
+        <f>E99-5.366*75</f>
+        <v>3.44513888888889</v>
+      </c>
+      <c r="I99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="14"/>
+        <v>407</v>
+      </c>
+      <c r="C100">
+        <v>19</v>
+      </c>
+      <c r="D100">
+        <v>32</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="24"/>
+        <v>407.813888888889</v>
+      </c>
+      <c r="F100" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G100">
+        <f>E100-5.366*75</f>
+        <v>5.36388888888888</v>
+      </c>
+      <c r="I100" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4793,10 +4898,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4845,7 +4950,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E21" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E22" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4860,7 +4965,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B21" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B22" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -5271,6 +5376,28 @@
       </c>
       <c r="F21" s="1">
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>108.813888888889</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16980" windowHeight="10935"/>
+    <workbookView windowWidth="21045" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="delta_cep" sheetId="1" r:id="rId1"/>
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,8 +77,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -93,43 +139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,33 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,24 +169,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,14 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +234,36 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -249,37 +279,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +363,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,60 +399,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,37 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,17 +431,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,8 +487,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -480,31 +506,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,164 +528,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$100</c:f>
+              <c:f>delta_cep!$G$46:$G$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1360,16 +1360,28 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>5.36388888888888</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.33116666666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.36102777777779</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.94780555555559</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.94294444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$100</c:f>
+              <c:f>delta_cep!$F$46:$F$104</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1534,6 +1546,18 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,10 +2103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3279,7 +3303,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B100" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B104" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4206,7 +4230,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E100" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E104" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4851,7 +4875,7 @@
         <v>3.9</v>
       </c>
       <c r="G99">
-        <f>E99-5.366*75</f>
+        <f t="shared" ref="G99:G102" si="31">E99-5.366*75</f>
         <v>3.44513888888889</v>
       </c>
       <c r="I99" t="s">
@@ -4880,11 +4904,115 @@
         <v>3.7</v>
       </c>
       <c r="G100">
-        <f>E100-5.366*75</f>
+        <f t="shared" si="31"/>
         <v>5.36388888888888</v>
       </c>
       <c r="I100" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3">
+        <v>43447</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="14"/>
+        <v>419</v>
+      </c>
+      <c r="C101">
+        <v>21</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="24"/>
+        <v>419.879166666667</v>
+      </c>
+      <c r="F101" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ref="G101:G104" si="32">E101-5.366*78</f>
+        <v>1.33116666666666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3">
+        <v>43450</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="14"/>
+        <v>422</v>
+      </c>
+      <c r="C102">
+        <v>21</v>
+      </c>
+      <c r="D102">
+        <v>49</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="24"/>
+        <v>422.909027777778</v>
+      </c>
+      <c r="F102" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="32"/>
+        <v>4.36102777777779</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3">
+        <v>43452</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="14"/>
+        <v>424</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>41</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="24"/>
+        <v>424.861805555556</v>
+      </c>
+      <c r="F103" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G103">
+        <f>E103-5.366*79</f>
+        <v>0.94780555555559</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3">
+        <v>43454</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="14"/>
+        <v>426</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>34</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="24"/>
+        <v>426.856944444444</v>
+      </c>
+      <c r="F104" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="G104">
+        <f>E104-5.366*79</f>
+        <v>2.94294444444444</v>
       </c>
     </row>
   </sheetData>
@@ -4898,10 +5026,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4950,7 +5078,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E22" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E24" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -4965,7 +5093,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B22" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B24" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -5397,6 +5525,50 @@
         <v>108.813888888889</v>
       </c>
       <c r="F22" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>43452</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>125.861805555556</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>43454</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>127.856944444444</v>
+      </c>
+      <c r="F24" s="1">
         <v>3.5</v>
       </c>
     </row>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -78,6 +78,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -145,8 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,22 +215,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,19 +237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +261,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +315,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,49 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,49 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +451,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,21 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$104</c:f>
+              <c:f>delta_cep!$G$46:$G$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1372,16 +1372,22 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2.94294444444444</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.19775000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1998333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$104</c:f>
+              <c:f>delta_cep!$F$46:$F$106</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1558,6 +1564,12 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,10 +2115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3303,7 +3315,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B104" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B106" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4230,7 +4242,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E104" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E105" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -4985,7 +4997,7 @@
         <v>3.9</v>
       </c>
       <c r="G103">
-        <f>E103-5.366*79</f>
+        <f t="shared" ref="G103:G105" si="33">E103-5.366*79</f>
         <v>0.94780555555559</v>
       </c>
     </row>
@@ -5011,8 +5023,72 @@
         <v>4.3</v>
       </c>
       <c r="G104">
-        <f>E104-5.366*79</f>
+        <f t="shared" si="33"/>
         <v>2.94294444444444</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="3">
+        <v>43463</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="14"/>
+        <v>435</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>15</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="24"/>
+        <v>435.84375</v>
+      </c>
+      <c r="F105" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G105">
+        <f>E105-5.366*81</f>
+        <v>1.19775000000004</v>
+      </c>
+      <c r="H105">
+        <v>81</v>
+      </c>
+      <c r="I105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="3">
+        <v>43466</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="14"/>
+        <v>438</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+      <c r="D106">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <f>(B106*1440+C106*60+D106)/1440</f>
+        <v>438.845833333333</v>
+      </c>
+      <c r="F106" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G106">
+        <f>E106-5.366*81</f>
+        <v>4.1998333333334</v>
+      </c>
+      <c r="I106" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -5026,10 +5102,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5078,7 +5154,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E24" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E25" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -5093,7 +5169,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B24" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B25" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -5570,6 +5646,28 @@
       </c>
       <c r="F24" s="1">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3">
+        <v>43463</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>136.84375</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="10350"/>
+    <workbookView windowWidth="21045" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="delta_cep" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -152,9 +145,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,14 +207,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +267,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,19 +351,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,121 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,21 +451,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +505,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$106</c:f>
+              <c:f>delta_cep!$G$46:$G$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1378,16 +1378,22 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>4.1998333333334</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.77333333333337</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.389972222222241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$106</c:f>
+              <c:f>delta_cep!$F$46:$F$108</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1570,6 +1576,12 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,10 +2127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3315,7 +3327,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B106" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B108" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4242,7 +4254,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E105" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E108" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -5049,7 +5061,7 @@
         <v>3.8</v>
       </c>
       <c r="G105">
-        <f>E105-5.366*81</f>
+        <f t="shared" ref="G105:G107" si="34">E105-5.366*81</f>
         <v>1.19775000000004</v>
       </c>
       <c r="H105">
@@ -5074,14 +5086,14 @@
         <v>18</v>
       </c>
       <c r="E106">
-        <f>(B106*1440+C106*60+D106)/1440</f>
+        <f t="shared" si="24"/>
         <v>438.845833333333</v>
       </c>
       <c r="F106" s="4">
         <v>3.3</v>
       </c>
       <c r="G106">
-        <f>E106-5.366*81</f>
+        <f t="shared" si="34"/>
         <v>4.1998333333334</v>
       </c>
       <c r="I106" t="s">
@@ -5089,6 +5101,58 @@
       </c>
       <c r="J106">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3">
+        <v>43485</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="14"/>
+        <v>457</v>
+      </c>
+      <c r="C107">
+        <v>21</v>
+      </c>
+      <c r="D107">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="24"/>
+        <v>457.883333333333</v>
+      </c>
+      <c r="F107" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G107">
+        <f>E107-5.366*85</f>
+        <v>1.77333333333337</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3">
+        <v>43489</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="14"/>
+        <v>461</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>47</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="24"/>
+        <v>461.865972222222</v>
+      </c>
+      <c r="F108" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G108">
+        <f>E108-5.366*86</f>
+        <v>0.389972222222241</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="10080"/>
+    <workbookView windowWidth="21600" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="delta_cep" sheetId="1" r:id="rId1"/>
-    <sheet name="mu_cep" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="delta_cep_2019" sheetId="3" r:id="rId2"/>
+    <sheet name="mu_cep" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -63,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -78,15 +78,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,9 +113,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,14 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -145,16 +135,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,9 +151,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +181,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -206,15 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +214,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,25 +261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,25 +279,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,13 +315,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,55 +369,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,17 +431,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,16 +450,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,17 +481,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -506,25 +489,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,31 +548,31 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,100 +581,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1192,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep!$G$46:$G$108</c:f>
+              <c:f>delta_cep!$G$46:$G$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>4.61736111111117</c:v>
                 </c:pt>
@@ -1375,25 +1375,16 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1.19775000000004</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.1998333333334</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.77333333333337</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.389972222222241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep!$F$46:$F$108</c:f>
+              <c:f>delta_cep!$F$46:$F$105</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1574,14 +1565,121 @@
                 <c:pt idx="59">
                   <c:v>3.8</c:v>
                 </c:pt>
-                <c:pt idx="60">
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"2019"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>delta_cep_2019!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.1998333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.77333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.389972222222241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.28788888888891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.32747222222224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.34508333333338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07283333333339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00538888888900146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99358333333339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.99636111111124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.97552777777787</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.54911111111119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>delta_cep_2019!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="1">
                   <c:v>3.9</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="2">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,14 +1909,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>302260</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>84455</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1826,7 +1924,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5210175" y="171450"/>
+        <a:off x="5210175" y="635"/>
         <a:ext cx="8941435" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2127,10 +2225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3327,7 +3425,7 @@
         <v>43300</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B108" si="14">A46-A45+B45</f>
+        <f t="shared" ref="B46:B109" si="14">A46-A45+B45</f>
         <v>272</v>
       </c>
       <c r="C46">
@@ -4254,7 +4352,7 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E108" si="24">(B77*1440+C77*60+D77)/1440</f>
+        <f t="shared" ref="E77:E110" si="24">(B77*1440+C77*60+D77)/1440</f>
         <v>349.809722222222</v>
       </c>
       <c r="F77" s="4">
@@ -5071,89 +5169,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="3">
-        <v>43466</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="14"/>
-        <v>438</v>
-      </c>
-      <c r="C106">
-        <v>20</v>
-      </c>
-      <c r="D106">
-        <v>18</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="24"/>
-        <v>438.845833333333</v>
-      </c>
-      <c r="F106" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="34"/>
-        <v>4.1998333333334</v>
-      </c>
-      <c r="I106" t="s">
-        <v>12</v>
-      </c>
-      <c r="J106">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="3">
-        <v>43485</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="14"/>
-        <v>457</v>
-      </c>
-      <c r="C107">
-        <v>21</v>
-      </c>
-      <c r="D107">
-        <v>12</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="24"/>
-        <v>457.883333333333</v>
-      </c>
-      <c r="F107" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G107">
-        <f>E107-5.366*85</f>
-        <v>1.77333333333337</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="3">
-        <v>43489</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="14"/>
-        <v>461</v>
-      </c>
-      <c r="C108">
-        <v>20</v>
-      </c>
-      <c r="D108">
-        <v>47</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="24"/>
-        <v>461.865972222222</v>
-      </c>
-      <c r="F108" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="G108">
-        <f>E108-5.366*86</f>
-        <v>0.389972222222241</v>
-      </c>
+    <row r="106" spans="1:1">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5166,10 +5195,413 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>43466</v>
+      </c>
+      <c r="B2">
+        <f>A2-delta_cep!A2+delta_cep!B2</f>
+        <v>438</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E13" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <v>438.845833333333</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G2">
+        <f>E2-5.366*81</f>
+        <v>4.1998333333334</v>
+      </c>
+      <c r="H2">
+        <v>81</v>
+      </c>
+      <c r="I2">
+        <v>2019</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>43485</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" si="1">A3-A2+B2</f>
+        <v>457</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>457.883333333333</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G3">
+        <f>E3-5.366*85</f>
+        <v>1.77333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>43489</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>461.865972222222</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G7" si="2">E4-5.366*86</f>
+        <v>0.389972222222241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>43491</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>463.763888888889</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2.28788888888891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>43492</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>464</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>464.803472222222</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>3.32747222222224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>686</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>686.827083333333</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G7">
+        <f>E7-5.366*127</f>
+        <v>5.34508333333338</v>
+      </c>
+      <c r="H7">
+        <v>127</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>687</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>687.920833333333</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G8">
+        <f>E8-5.366*128</f>
+        <v>1.07283333333339</v>
+      </c>
+      <c r="H8">
+        <v>128</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>43730</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>702</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>702.951388888889</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G13" si="3">E9-5.366*131</f>
+        <v>0.00538888888900146</v>
+      </c>
+      <c r="H9">
+        <v>131</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>43731</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>703</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>703.939583333333</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.99358333333339</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>43734</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>706</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>706.942361111111</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>3.99636111111124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>707</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>707.921527777778</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>4.97552777777787</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>43737</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>709</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>709.861111111111</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G13">
+        <f>E13-5.366*132</f>
+        <v>1.54911111111119</v>
+      </c>
+      <c r="H13">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5218,14 +5650,14 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E25" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E27" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
         <v>3.5</v>
       </c>
       <c r="G2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5233,7 +5665,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B25" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B27" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -5732,26 +6164,57 @@
       </c>
       <c r="F25" s="1">
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>43491</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>164.763888888889</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
+        <v>43730</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>403</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>403.951388888889</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10425"/>
+    <workbookView windowWidth="21045" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="delta_cep" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -63,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -84,8 +84,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,10 +122,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,24 +145,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,7 +176,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,23 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,13 +261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,37 +285,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,6 +345,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -357,67 +393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,11 +431,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,21 +451,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,26 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,11 +502,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,7 +539,7 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,16 +548,16 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,16 +566,16 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,94 +584,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1596,10 +1596,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$G$2:$G$13</c:f>
+              <c:f>delta_cep_2019!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>4.1998333333334</c:v>
                 </c:pt>
@@ -1635,16 +1635,28 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.54911111111119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.61508333333347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.241444444444483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.24838888888894</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.80391666666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$F$2:$F$13</c:f>
+              <c:f>delta_cep_2019!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
@@ -1680,6 +1692,18 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5195,14 +5219,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9.125"/>
     <col min="7" max="7" width="12.625"/>
   </cols>
   <sheetData>
@@ -5250,7 +5275,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E17" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>438.845833333333</v>
       </c>
       <c r="F2" s="4">
@@ -5275,7 +5300,7 @@
         <v>43485</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B13" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B17" si="1">A3-A2+B2</f>
         <v>457</v>
       </c>
       <c r="C3">
@@ -5579,7 +5604,7 @@
         <v>3.9</v>
       </c>
       <c r="G13">
-        <f>E13-5.366*132</f>
+        <f t="shared" ref="G13:G15" si="4">E13-5.366*132</f>
         <v>1.54911111111119</v>
       </c>
       <c r="H13">
@@ -5587,6 +5612,125 @@
       </c>
       <c r="J13" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>43740</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>712</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>712.927083333333</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>4.61508333333347</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>43741</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>713</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>713.919444444444</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G17" si="5">E15-5.366*133</f>
+        <v>0.241444444444483</v>
+      </c>
+      <c r="H15">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>43742</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>714</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>714.926388888889</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>1.24838888888894</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>43748</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>720.847916666667</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.1</v>
+      </c>
+      <c r="G17">
+        <f>E17-5.366*134</f>
+        <v>1.80391666666674</v>
+      </c>
+      <c r="H17">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5598,10 +5742,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5650,7 +5794,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E27" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E28" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -5665,7 +5809,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B27" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B28" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -6211,6 +6355,28 @@
       </c>
       <c r="F27" s="1">
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
+        <v>43740</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>413.927083333333</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -78,7 +78,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,7 +86,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,8 +114,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,33 +168,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,14 +193,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,23 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,13 +267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,13 +285,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,121 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,60 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +450,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +492,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1596,10 +1596,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$G$2:$G$17</c:f>
+              <c:f>delta_cep_2019!$G$2:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>4.1998333333334</c:v>
                 </c:pt>
@@ -1647,16 +1647,34 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.80391666666674</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.517083333333403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.46291666666673</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.42750000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0726111111112004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.06219444444446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.07122222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$F$2:$F$17</c:f>
+              <c:f>delta_cep_2019!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
@@ -1704,6 +1722,24 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,15 +1968,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>302260</xdr:colOff>
+      <xdr:colOff>311785</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>85090</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1948,7 +1984,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5210175" y="635"/>
+        <a:off x="5219700" y="1270"/>
         <a:ext cx="8941435" cy="5742305"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2251,8 +2287,8 @@
   <sheetPr/>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5219,10 +5255,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5275,7 +5311,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E17" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E23" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>438.845833333333</v>
       </c>
       <c r="F2" s="4">
@@ -5300,7 +5336,7 @@
         <v>43485</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B17" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B23" si="1">A3-A2+B2</f>
         <v>457</v>
       </c>
       <c r="C3">
@@ -5726,11 +5762,203 @@
         <v>4.1</v>
       </c>
       <c r="G17">
-        <f>E17-5.366*134</f>
+        <f t="shared" ref="G17:G19" si="6">E17-5.366*134</f>
         <v>1.80391666666674</v>
       </c>
       <c r="H17">
         <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>43752</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>724</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>724.927083333333</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G21" si="7">E18-5.366*135</f>
+        <v>0.517083333333403</v>
+      </c>
+      <c r="H18">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <v>43753</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>725</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>57</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>725.872916666667</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>1.46291666666673</v>
+      </c>
+      <c r="H19">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
+        <v>43756</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>728</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>728.8375</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>4.42750000000001</v>
+      </c>
+      <c r="H20">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <v>43757</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>729</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>729.848611111111</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G23" si="8">E21-5.366*136</f>
+        <v>0.0726111111112004</v>
+      </c>
+      <c r="H21">
+        <v>136</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
+        <v>43758</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>730</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>730.838194444444</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>1.06219444444446</v>
+      </c>
+      <c r="H22">
+        <v>136</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
+        <v>43759</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>731</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>731.847222222222</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>2.07122222222222</v>
+      </c>
+      <c r="H23">
+        <v>136</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="10425"/>
+    <workbookView windowWidth="21045" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="delta_cep" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -77,40 +77,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,19 +129,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,15 +197,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,20 +227,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -234,54 +234,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -297,19 +249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,37 +285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,19 +297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +327,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,6 +349,78 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -428,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,6 +466,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,41 +522,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1596,10 +1596,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$G$2:$G$23</c:f>
+              <c:f>delta_cep_2019!$G$2:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>4.1998333333334</c:v>
                 </c:pt>
@@ -1665,16 +1665,28 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.07122222222222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.15872222222231</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.71702777777784</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.27672222222225</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.26075000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$F$2:$F$23</c:f>
+              <c:f>delta_cep_2019!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
@@ -1740,6 +1752,18 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,8 +2311,8 @@
   <sheetPr/>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5255,10 +5279,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5311,7 +5335,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E23" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E27" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>438.845833333333</v>
       </c>
       <c r="F2" s="4">
@@ -5336,7 +5360,7 @@
         <v>43485</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B23" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B27" si="1">A3-A2+B2</f>
         <v>457</v>
       </c>
       <c r="C3">
@@ -5887,7 +5911,7 @@
         <v>3.4</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G23" si="8">E21-5.366*136</f>
+        <f t="shared" ref="G21:G27" si="8">E21-5.366*136</f>
         <v>0.0726111111112004</v>
       </c>
       <c r="H21">
@@ -5959,6 +5983,128 @@
       </c>
       <c r="J23" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
+        <v>43761</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>733</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>733.934722222222</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>4.15872222222231</v>
+      </c>
+      <c r="H24">
+        <v>136</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
+        <v>43765</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>737</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>737.859027777778</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G25">
+        <f>E25-5.366*137</f>
+        <v>2.71702777777784</v>
+      </c>
+      <c r="H25">
+        <v>137</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>43769</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>741</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>741.784722222222</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f>E26-5.366*138</f>
+        <v>1.27672222222225</v>
+      </c>
+      <c r="H26">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>43770</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>742</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>742.76875</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G27">
+        <f>E27-5.366*138</f>
+        <v>2.26075000000003</v>
+      </c>
+      <c r="H27">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
@@ -77,23 +77,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,58 +86,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,11 +107,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,19 +175,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,7 +237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,60 +280,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +315,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,43 +369,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -465,7 +504,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,45 +523,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1596,10 +1596,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$G$2:$G$27</c:f>
+              <c:f>delta_cep_2019!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4.1998333333334</c:v>
                 </c:pt>
@@ -1677,16 +1677,31 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.26075000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2385277777779</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.997527777777918</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.96558333333337</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.97738888888898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.88363888888898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$F$2:$F$27</c:f>
+              <c:f>delta_cep_2019!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
@@ -1764,6 +1779,21 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2312,7 +2342,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5279,10 +5309,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5335,7 +5365,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E27" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E32" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>438.845833333333</v>
       </c>
       <c r="F2" s="4">
@@ -5360,7 +5390,7 @@
         <v>43485</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B27" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B32" si="1">A3-A2+B2</f>
         <v>457</v>
       </c>
       <c r="C3">
@@ -6071,7 +6101,7 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <f>E26-5.366*138</f>
+        <f t="shared" ref="G26:G29" si="9">E26-5.366*138</f>
         <v>1.27672222222225</v>
       </c>
       <c r="H26">
@@ -6100,11 +6130,162 @@
         <v>4.2</v>
       </c>
       <c r="G27">
-        <f>E27-5.366*138</f>
+        <f t="shared" si="9"/>
         <v>2.26075000000003</v>
       </c>
       <c r="H27">
         <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>43772</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>744</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>744.746527777778</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>4.2385277777779</v>
+      </c>
+      <c r="H28">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
+        <v>43774</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>746</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>746.871527777778</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G32" si="10">E29-5.366*139</f>
+        <v>0.997527777777918</v>
+      </c>
+      <c r="H29">
+        <v>139</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>43776</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>748</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>748.839583333333</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="10"/>
+        <v>2.96558333333337</v>
+      </c>
+      <c r="H30">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
+        <v>43777</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>749</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>749.851388888889</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="10"/>
+        <v>3.97738888888898</v>
+      </c>
+      <c r="H31">
+        <v>139</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>43778</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>750.757638888889</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="10"/>
+        <v>4.88363888888898</v>
+      </c>
+      <c r="H32">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -78,7 +78,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,7 +86,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,8 +114,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,33 +168,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,38 +193,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,54 +234,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -315,6 +267,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,61 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,6 +431,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -442,15 +466,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,32 +485,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,13 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,7 +548,7 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,124 +557,124 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1596,10 +1596,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$G$2:$G$32</c:f>
+              <c:f>delta_cep_2019!$G$2:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>4.1998333333334</c:v>
                 </c:pt>
@@ -1691,17 +1691,20 @@
                   <c:v>3.97738888888898</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.88363888888898</c:v>
+                  <c:v>0.517638888888882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.61347222222219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$F$2:$F$32</c:f>
+              <c:f>delta_cep_2019!$F$2:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
@@ -1794,6 +1797,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2342,7 +2348,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5309,16 +5315,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125"/>
-    <col min="7" max="7" width="12.625"/>
+    <col min="7" max="7" width="13.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5365,7 +5371,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E32" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E33" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>438.845833333333</v>
       </c>
       <c r="F2" s="4">
@@ -5390,7 +5396,7 @@
         <v>43485</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B32" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B33" si="1">A3-A2+B2</f>
         <v>457</v>
       </c>
       <c r="C3">
@@ -6188,7 +6194,7 @@
         <v>3.8</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G32" si="10">E29-5.366*139</f>
+        <f t="shared" ref="G29:G33" si="10">E29-5.366*139</f>
         <v>0.997527777777918</v>
       </c>
       <c r="H29">
@@ -6261,11 +6267,11 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3">
-        <v>43778</v>
+        <v>43779</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C32">
         <v>18</v>
@@ -6275,17 +6281,46 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>750.757638888889</v>
+        <v>751.757638888889</v>
       </c>
       <c r="F32" s="4">
         <v>3.7</v>
       </c>
       <c r="G32">
-        <f t="shared" si="10"/>
-        <v>4.88363888888898</v>
+        <f>E32-5.366*140</f>
+        <v>0.517638888888882</v>
       </c>
       <c r="H32">
-        <v>139</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>43780</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>752.853472222222</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G33">
+        <f>E33-5.366*140</f>
+        <v>1.61347222222219</v>
+      </c>
+      <c r="H33">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="10155"/>
+    <workbookView windowWidth="20925" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="delta_cep" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0332078687593211"/>
-          <c:y val="0.0838880902355418"/>
+          <c:y val="0.0822291652189526"/>
           <c:w val="0.933828582041044"/>
           <c:h val="0.811611190976446"/>
         </c:manualLayout>
@@ -1596,10 +1596,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$G$2:$G$33</c:f>
+              <c:f>delta_cep_2019!$G$2:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>4.1998333333334</c:v>
                 </c:pt>
@@ -1695,16 +1695,28 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.61347222222219</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.67527777777775</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.60027777777782</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.262749999999983</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.26413888888885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$F$2:$F$33</c:f>
+              <c:f>delta_cep_2019!$F$2:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
@@ -1799,6 +1811,18 @@
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -2348,7 +2372,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5315,10 +5339,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5371,7 +5395,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E37" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>438.845833333333</v>
       </c>
       <c r="F2" s="4">
@@ -5396,7 +5420,7 @@
         <v>43485</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B33" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B37" si="1">A3-A2+B2</f>
         <v>457</v>
       </c>
       <c r="C3">
@@ -6287,7 +6311,7 @@
         <v>3.7</v>
       </c>
       <c r="G32">
-        <f>E32-5.366*140</f>
+        <f t="shared" ref="G32:G36" si="11">E32-5.366*140</f>
         <v>0.517638888888882</v>
       </c>
       <c r="H32">
@@ -6316,11 +6340,127 @@
         <v>3.9</v>
       </c>
       <c r="G33">
-        <f>E33-5.366*140</f>
+        <f t="shared" si="11"/>
         <v>1.61347222222219</v>
       </c>
       <c r="H33">
         <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>43782</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>754</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>58</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>754.915277777778</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>3.67527777777775</v>
+      </c>
+      <c r="H34">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>43783</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>755</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>755.840277777778</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>4.60027777777782</v>
+      </c>
+      <c r="H35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>43784</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>756</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>51</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>756.86875</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G36">
+        <f>E36-5.366*141</f>
+        <v>0.262749999999983</v>
+      </c>
+      <c r="H36">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>43787</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>759</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>53</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>759.870138888889</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G37">
+        <f>E37-5.366*141</f>
+        <v>3.26413888888885</v>
+      </c>
+      <c r="H37">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -206,8 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,18 +243,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -267,13 +255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,19 +291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,13 +351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,13 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,7 +548,7 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,7 +557,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,10 +569,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,7 +593,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -602,19 +602,19 @@
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -623,40 +623,40 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,13 +665,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1596,10 +1596,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$G$2:$G$37</c:f>
+              <c:f>delta_cep_2019!$G$2:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>4.1998333333334</c:v>
                 </c:pt>
@@ -1707,16 +1707,28 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.26413888888885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.18011111111116</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.29538888888885</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.944666666666649</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.91133333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$F$2:$F$37</c:f>
+              <c:f>delta_cep_2019!$F$2:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
@@ -1823,6 +1835,18 @@
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -2371,8 +2395,8 @@
   <sheetPr/>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5339,10 +5363,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5395,7 +5419,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E37" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E41" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>438.845833333333</v>
       </c>
       <c r="F2" s="4">
@@ -5420,7 +5444,7 @@
         <v>43485</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B37" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B41" si="1">A3-A2+B2</f>
         <v>457</v>
       </c>
       <c r="C3">
@@ -6427,7 +6451,7 @@
         <v>3.7</v>
       </c>
       <c r="G36">
-        <f>E36-5.366*141</f>
+        <f t="shared" ref="G36:G40" si="12">E36-5.366*141</f>
         <v>0.262749999999983</v>
       </c>
       <c r="H36">
@@ -6456,11 +6480,139 @@
         <v>3.9</v>
       </c>
       <c r="G37">
-        <f>E37-5.366*141</f>
+        <f t="shared" si="12"/>
         <v>3.26413888888885</v>
       </c>
       <c r="H37">
         <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3">
+        <v>43788</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>760</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>52</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>760.786111111111</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="12"/>
+        <v>4.18011111111116</v>
+      </c>
+      <c r="H38">
+        <v>141</v>
+      </c>
+      <c r="J38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
+        <v>43789</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>761</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>761.901388888889</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="12"/>
+        <v>5.29538888888885</v>
+      </c>
+      <c r="H39">
+        <v>141</v>
+      </c>
+      <c r="J39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
+        <v>43790</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>762</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>762.916666666667</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G40">
+        <f>E40-5.366*142</f>
+        <v>0.944666666666649</v>
+      </c>
+      <c r="H40">
+        <v>142</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
+        <v>43791</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>763</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>763.883333333333</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G41">
+        <f>E41-5.366*142</f>
+        <v>1.91133333333335</v>
+      </c>
+      <c r="H41">
+        <v>142</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6472,10 +6624,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6524,7 +6676,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E28" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E29" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>0.852777777777778</v>
       </c>
       <c r="F2" s="1">
@@ -6539,7 +6691,7 @@
         <v>43331</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B28" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B29" si="1">A3-A2+B2</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -7107,6 +7259,28 @@
       </c>
       <c r="F28" s="1">
         <v>3.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
+        <v>43788</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>461.786111111111</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -62,11 +62,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -206,7 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -214,6 +213,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -237,12 +237,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -255,7 +249,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,12 +399,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -297,24 +411,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,102 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,16 +548,16 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,10 +569,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,88 +593,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1596,10 +1596,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$G$2:$G$41</c:f>
+              <c:f>delta_cep_2019!$G$2:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>4.1998333333334</c:v>
                 </c:pt>
@@ -1719,16 +1719,25 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1.91133333333335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.47241666666673</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.17933333333337</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.18350000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$F$2:$F$41</c:f>
+              <c:f>delta_cep_2019!$F$2:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
@@ -1848,6 +1857,15 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2396,7 +2414,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5363,10 +5381,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5419,7 +5437,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E41" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E44" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>438.845833333333</v>
       </c>
       <c r="F2" s="4">
@@ -5444,7 +5462,7 @@
         <v>43485</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B41" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B44" si="1">A3-A2+B2</f>
         <v>457</v>
       </c>
       <c r="C3">
@@ -6573,7 +6591,7 @@
         <v>3.9</v>
       </c>
       <c r="G40">
-        <f>E40-5.366*142</f>
+        <f t="shared" ref="G40:G42" si="13">E40-5.366*142</f>
         <v>0.944666666666649</v>
       </c>
       <c r="H40">
@@ -6605,7 +6623,7 @@
         <v>3.9</v>
       </c>
       <c r="G41">
-        <f>E41-5.366*142</f>
+        <f t="shared" si="13"/>
         <v>1.91133333333335</v>
       </c>
       <c r="H41">
@@ -6613,6 +6631,93 @@
       </c>
       <c r="J41" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>43798</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>27</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>770.810416666667</v>
+      </c>
+      <c r="F42" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G42">
+        <f>E42-5.366*143</f>
+        <v>3.47241666666673</v>
+      </c>
+      <c r="H42">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>43801</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>773</v>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>773.883333333333</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <f>E43-5.366*144</f>
+        <v>1.17933333333337</v>
+      </c>
+      <c r="H43">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>43802</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>774</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>774.8875</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G44">
+        <f>E44-5.366*144</f>
+        <v>2.18350000000009</v>
+      </c>
+      <c r="H44">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/delta_cep/delta_cep.xlsx
+++ b/delta_cep/delta_cep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -65,8 +65,8 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,8 +77,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,6 +108,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,22 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,52 +170,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,22 +189,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,14 +214,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,145 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +261,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +415,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -428,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,56 +471,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -528,153 +493,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1596,10 +1596,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$G$2:$G$44</c:f>
+              <c:f>delta_cep_2019!$G$2:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4.1998333333334</c:v>
                 </c:pt>
@@ -1728,16 +1728,28 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2.18350000000009</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.08419444444451</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.690416666666692</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.67513888888891</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.79458333333343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>delta_cep_2019!$F$2:$F$44</c:f>
+              <c:f>delta_cep_2019!$F$2:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
@@ -1866,6 +1878,18 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,8 +2437,8 @@
   <sheetPr/>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5381,10 +5405,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5437,7 +5461,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E44" si="0">(B2*1440+C2*60+D2)/1440</f>
+        <f t="shared" ref="E2:E48" si="0">(B2*1440+C2*60+D2)/1440</f>
         <v>438.845833333333</v>
       </c>
       <c r="F2" s="4">
@@ -5457,12 +5481,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>43485</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B44" si="1">A3-A2+B2</f>
+        <f t="shared" ref="B3:B48" si="1">A3-A2+B2</f>
         <v>457</v>
       </c>
       <c r="C3">
@@ -5482,8 +5506,11 @@
         <f>E3-5.366*85</f>
         <v>1.77333333333337</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>43489</v>
       </c>
@@ -5508,6 +5535,9 @@
         <f t="shared" ref="G4:G7" si="2">E4-5.366*86</f>
         <v>0.389972222222241</v>
       </c>
+      <c r="H4">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
@@ -6684,7 +6714,7 @@
         <v>4</v>
       </c>
       <c r="G43">
-        <f>E43-5.366*144</f>
+        <f t="shared" ref="G43:G46" si="14">E43-5.366*144</f>
         <v>1.17933333333337</v>
       </c>
       <c r="H43">
@@ -6713,11 +6743,130 @@
         <v>4.2</v>
       </c>
       <c r="G44">
-        <f>E44-5.366*144</f>
+        <f t="shared" si="14"/>
         <v>2.18350000000009</v>
       </c>
       <c r="H44">
         <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3">
+        <v>43805</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>777</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>777.788194444444</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="14"/>
+        <v>5.08419444444451</v>
+      </c>
+      <c r="H45">
+        <v>144</v>
+      </c>
+      <c r="J45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>43806</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>778</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>778.760416666667</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3.8</v>
+